--- a/반월도서관희망도서목록2019.xlsx
+++ b/반월도서관희망도서목록2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB74062A-664E-491B-BD1E-9CF07C4073D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F44B9B-967A-4E5C-8CD2-F2DC6B703046}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52C64F1C-CC25-4750-B4F1-702FD142BCB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{52C64F1C-CC25-4750-B4F1-702FD142BCB6}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN1st" sheetId="3" r:id="rId1"/>
@@ -2177,7 +2177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2234,6 +2234,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3325,7 +3328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765C35F5-0E21-4ACF-B3CA-3FDBF2CB77FB}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3939,16 +3942,18 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="70.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -4105,7 +4110,7 @@
       <c r="D7" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="19" t="s">
         <v>285</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -4287,7 +4292,7 @@
       <c r="D14" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="19" t="s">
         <v>321</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -4391,7 +4396,7 @@
       <c r="D18" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="19" t="s">
         <v>341</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -4443,7 +4448,7 @@
       <c r="D20" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="19" t="s">
         <v>351</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -4495,7 +4500,7 @@
       <c r="D22" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="19" t="s">
         <v>361</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -4599,7 +4604,7 @@
       <c r="D26" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="19" t="s">
         <v>381</v>
       </c>
       <c r="F26" s="12" t="s">
@@ -4679,16 +4684,17 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="36.875" customWidth="1"/>
-    <col min="5" max="6" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -4895,7 +4901,7 @@
       <c r="C10" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="17" t="s">
         <v>431</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -4918,7 +4924,7 @@
       <c r="C11" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="17" t="s">
         <v>436</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -4941,7 +4947,7 @@
       <c r="C12" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="17" t="s">
         <v>441</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4964,7 +4970,7 @@
       <c r="C13" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="17" t="s">
         <v>445</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -4987,7 +4993,7 @@
       <c r="C14" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="17" t="s">
         <v>449</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -5010,7 +5016,7 @@
       <c r="C15" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="17" t="s">
         <v>454</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -5033,7 +5039,7 @@
       <c r="C16" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="17" t="s">
         <v>458</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -5199,17 +5205,18 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="42.5" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="56.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5287,7 +5294,7 @@
       <c r="D4" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="17" t="s">
         <v>496</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -5443,7 +5450,7 @@
       <c r="D10" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="17" t="s">
         <v>525</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -5495,7 +5502,7 @@
       <c r="D12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="17" t="s">
         <v>535</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -5678,16 +5685,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEEF6B9-A0DC-4984-9F15-9EDB4877E6F3}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="44.125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="6"/>
   </cols>
   <sheetData>

--- a/반월도서관희망도서목록2019.xlsx
+++ b/반월도서관희망도서목록2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F44B9B-967A-4E5C-8CD2-F2DC6B703046}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE864D93-BD00-4675-8882-148F6484E553}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{52C64F1C-CC25-4750-B4F1-702FD142BCB6}"/>
   </bookViews>
@@ -2226,9 +2226,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2237,6 +2234,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2570,15 +2570,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -2657,7 +2657,7 @@
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2680,7 +2680,7 @@
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2818,7 +2818,7 @@
       <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -2933,7 +2933,7 @@
       <c r="C17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -3117,7 +3117,7 @@
       <c r="C25" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>116</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -3186,7 +3186,7 @@
       <c r="C28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>131</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -3232,7 +3232,7 @@
       <c r="C30" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>141</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -3344,15 +3344,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -3385,7 +3385,7 @@
       <c r="C3" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -3408,7 +3408,7 @@
       <c r="C4" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -3592,7 +3592,7 @@
       <c r="C12" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -3615,7 +3615,7 @@
       <c r="C13" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>200</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -3684,7 +3684,7 @@
       <c r="C16" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>214</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -3822,7 +3822,7 @@
       <c r="C22" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>242</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -3958,16 +3958,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -4110,7 +4110,7 @@
       <c r="D7" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>285</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -4292,7 +4292,7 @@
       <c r="D14" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>321</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -4396,7 +4396,7 @@
       <c r="D18" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>341</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -4448,7 +4448,7 @@
       <c r="D20" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>351</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -4500,7 +4500,7 @@
       <c r="D22" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>361</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -4604,7 +4604,7 @@
       <c r="D26" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>381</v>
       </c>
       <c r="F26" s="12" t="s">
@@ -4699,15 +4699,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -4901,7 +4901,7 @@
       <c r="C10" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>431</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -4924,7 +4924,7 @@
       <c r="C11" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>436</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -4947,7 +4947,7 @@
       <c r="C12" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>441</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4970,7 +4970,7 @@
       <c r="C13" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>445</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -4993,7 +4993,7 @@
       <c r="C14" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>449</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -5016,7 +5016,7 @@
       <c r="C15" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>454</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -5039,7 +5039,7 @@
       <c r="C16" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>458</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -5220,16 +5220,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
@@ -5294,7 +5294,7 @@
       <c r="D4" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>496</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -5450,7 +5450,7 @@
       <c r="D10" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>525</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -5502,7 +5502,7 @@
       <c r="D12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>535</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -5701,15 +5701,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -5765,7 +5765,7 @@
       <c r="C4" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="18" t="s">
         <v>575</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -5788,7 +5788,7 @@
       <c r="C5" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="18" t="s">
         <v>580</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -5811,7 +5811,7 @@
       <c r="C6" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="18" t="s">
         <v>585</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -5834,7 +5834,7 @@
       <c r="C7" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="18" t="s">
         <v>589</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -6041,7 +6041,7 @@
       <c r="C16" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="18" t="s">
         <v>630</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -6064,7 +6064,7 @@
       <c r="C17" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="18" t="s">
         <v>634</v>
       </c>
       <c r="E17" s="12" t="s">

--- a/반월도서관희망도서목록2019.xlsx
+++ b/반월도서관희망도서목록2019.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\04_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE864D93-BD00-4675-8882-148F6484E553}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{52C64F1C-CC25-4750-B4F1-702FD142BCB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="JAN1st" sheetId="3" r:id="rId1"/>
@@ -19,8 +18,10 @@
     <sheet name="FEB2nd" sheetId="6" r:id="rId4"/>
     <sheet name="MAR1st" sheetId="7" r:id="rId5"/>
     <sheet name="MAR2nd" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
+    <sheet name="Apr1st" sheetId="9" r:id="rId7"/>
+    <sheet name="Apr2nd" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="880">
   <si>
     <t>반월도서관 1월 1차 희망도서 입수목록(31권)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2054,12 +2055,645 @@
   </si>
   <si>
     <t>스콜라</t>
+  </si>
+  <si>
+    <t>반월도서관 4월 1차 희망도서 입수목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000030914</t>
+  </si>
+  <si>
+    <t>아동 808.9-창48ㅊ-303</t>
+  </si>
+  <si>
+    <t>우주로 가는 계단 : 전수경 장편동화</t>
+  </si>
+  <si>
+    <t>전수경 지음 ; 소윤경 그림</t>
+  </si>
+  <si>
+    <t>창비</t>
+  </si>
+  <si>
+    <t>HBM000030915</t>
+  </si>
+  <si>
+    <t>694.304-안74ㄴ</t>
+  </si>
+  <si>
+    <t>나는 오늘 모리셔스의 바닷가를 달린다 = Running in Mauritius</t>
+  </si>
+  <si>
+    <t>안정은 지음</t>
+  </si>
+  <si>
+    <t>HBM000030916</t>
+  </si>
+  <si>
+    <t>598.1-오15ㅇ</t>
+  </si>
+  <si>
+    <t>아빠 수업</t>
+  </si>
+  <si>
+    <t>오광조 지음</t>
+  </si>
+  <si>
+    <t>미문사</t>
+  </si>
+  <si>
+    <t>HBM000030917</t>
+  </si>
+  <si>
+    <t>598.1-이62ㅇ</t>
+  </si>
+  <si>
+    <t>엄마 수업</t>
+  </si>
+  <si>
+    <t>이아롱 지음</t>
+  </si>
+  <si>
+    <t>HBM000030918</t>
+  </si>
+  <si>
+    <t>325.211-김25ㅈ</t>
+  </si>
+  <si>
+    <t>직딩의 정석 : Employee 101</t>
+  </si>
+  <si>
+    <t>김동근 지음</t>
+  </si>
+  <si>
+    <t>HBM000030919</t>
+  </si>
+  <si>
+    <t>325.23-김83ㅈ</t>
+  </si>
+  <si>
+    <t>직원존중 주식회사 : 한국형 조직문화 혁신전략</t>
+  </si>
+  <si>
+    <t>김철영 지음</t>
+  </si>
+  <si>
+    <t>HBM000030920</t>
+  </si>
+  <si>
+    <t>656.2-강57ㅇ</t>
+  </si>
+  <si>
+    <t>(강승희의)인물 드로잉 bible</t>
+  </si>
+  <si>
+    <t>강승희 지음</t>
+  </si>
+  <si>
+    <t>HBM000030921</t>
+  </si>
+  <si>
+    <t>유아원서 843-V48g</t>
+  </si>
+  <si>
+    <t>[반월]유아실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grumpy frog</t>
+  </si>
+  <si>
+    <t>by Ed Vere</t>
+  </si>
+  <si>
+    <t>Puffin Books</t>
+  </si>
+  <si>
+    <t>HBM000030922</t>
+  </si>
+  <si>
+    <t>유아원서 843-H49i</t>
+  </si>
+  <si>
+    <t>I need a wee!</t>
+  </si>
+  <si>
+    <t>by Sue Hendra, Paul Linnet</t>
+  </si>
+  <si>
+    <t>Simon and Schuster</t>
+  </si>
+  <si>
+    <t>HBM000030923</t>
+  </si>
+  <si>
+    <t>740.77-해87ㅎ</t>
+  </si>
+  <si>
+    <t>(2주 만에 끝내는)해커스 토익 Speaking : Level 7·8</t>
+  </si>
+  <si>
+    <t>해커스 어학연구소 지음</t>
+  </si>
+  <si>
+    <t>해커스어학연구소</t>
+  </si>
+  <si>
+    <t>HBM000030924</t>
+  </si>
+  <si>
+    <t>813.7-김27ㅇ</t>
+  </si>
+  <si>
+    <t>아디오스 아툰 = Adios Atun</t>
+  </si>
+  <si>
+    <t>김득진 지음</t>
+  </si>
+  <si>
+    <t>산지니</t>
+  </si>
+  <si>
+    <t>HBM000030925</t>
+  </si>
+  <si>
+    <t>982.702-조74ㅌ</t>
+  </si>
+  <si>
+    <t>타파스 &amp; 카페 맛있는 스페인에 가자</t>
+  </si>
+  <si>
+    <t>조정희 지음</t>
+  </si>
+  <si>
+    <t>J&amp;jj</t>
+  </si>
+  <si>
+    <t>HBM000030926</t>
+  </si>
+  <si>
+    <t>325.337-서66ㄱ</t>
+  </si>
+  <si>
+    <t>금융논술면접 : 금융권 취업 합격 대비 필독서</t>
+  </si>
+  <si>
+    <t>서울커리어아카데미SCA 취달청, 진현수 지음</t>
+  </si>
+  <si>
+    <t>에듀크라운</t>
+  </si>
+  <si>
+    <t>HBM000030927</t>
+  </si>
+  <si>
+    <t>327.04-요87ㅁㅈ</t>
+  </si>
+  <si>
+    <t>미라클 일주일 지갑</t>
+  </si>
+  <si>
+    <t>요코야마 미쓰아키 지음 ; 정세영 옮김</t>
+  </si>
+  <si>
+    <t>리더스북</t>
+  </si>
+  <si>
+    <t>HBM000030928</t>
+  </si>
+  <si>
+    <t>유아 372.42-최38ㅇ</t>
+  </si>
+  <si>
+    <t>(어린이 안전 그림책)이럴 땐 어떻게? : 생활 안전 편</t>
+  </si>
+  <si>
+    <t>최미란 지음 ; 박진아 그림</t>
+  </si>
+  <si>
+    <t>키즈엠</t>
+  </si>
+  <si>
+    <t>HBM000030929</t>
+  </si>
+  <si>
+    <t>유아 808.9-뚝22ㄱ-7</t>
+  </si>
+  <si>
+    <t>아무도 지나가지 마!</t>
+  </si>
+  <si>
+    <t>이자벨 미뇨스 마르틴스 글 ; 베르나르두 카르발류 그림 ; 민찬기 번역·내용공작</t>
+  </si>
+  <si>
+    <t>그림책공작소</t>
+  </si>
+  <si>
+    <t>HBM000030930</t>
+  </si>
+  <si>
+    <t>유아 808.9-꿈16ㅅ-22</t>
+  </si>
+  <si>
+    <t>거짓말</t>
+  </si>
+  <si>
+    <t>카트린 그리브 글 ; 프레데리크 베르트랑 그림 ; 권지현 옮김</t>
+  </si>
+  <si>
+    <t>HBM000030931</t>
+  </si>
+  <si>
+    <t>337.1-프29ㅇㄱ</t>
+  </si>
+  <si>
+    <t>여성성의 신화</t>
+  </si>
+  <si>
+    <t>베티 프리단 지음 ; 김현우 옮김</t>
+  </si>
+  <si>
+    <t>갈라파고스</t>
+  </si>
+  <si>
+    <t>HBM000030932</t>
+  </si>
+  <si>
+    <t>592.3-부28ㅊㄱ</t>
+  </si>
+  <si>
+    <t>(옷 만들기의 모든 궁금증을 풀 수 있는)친절한 양재백과</t>
+  </si>
+  <si>
+    <t>부띠끄사 편집부 지음 ; 고정아 옮김</t>
+  </si>
+  <si>
+    <t>터닝포인트</t>
+  </si>
+  <si>
+    <t>HBM000030933</t>
+  </si>
+  <si>
+    <t>833.6-아29ㅈㄱ-1</t>
+  </si>
+  <si>
+    <t>자물쇠 잠긴 남자. 상</t>
+  </si>
+  <si>
+    <t>아리스가와 아리스 지음 ; 김선영 옮김</t>
+  </si>
+  <si>
+    <t>엘릭시르</t>
+  </si>
+  <si>
+    <t>HBM000030934</t>
+  </si>
+  <si>
+    <t>833.6-아29ㅈㄱ-2</t>
+  </si>
+  <si>
+    <t>자물쇠 잠긴 남자. 하</t>
+  </si>
+  <si>
+    <t>HBM000030935</t>
+  </si>
+  <si>
+    <t>005.118-아19ㅁㅇ</t>
+  </si>
+  <si>
+    <t>모던 리액트/리덕스 프로그래밍</t>
+  </si>
+  <si>
+    <t>아나이 히로유키 [외]지음, 윤인성 옮김</t>
+  </si>
+  <si>
+    <t>위키북스</t>
+  </si>
+  <si>
+    <t>HBM000030936</t>
+  </si>
+  <si>
+    <t>005.118-김38ㄹ</t>
+  </si>
+  <si>
+    <t>리액트를 다루는 기술 = The art of react</t>
+  </si>
+  <si>
+    <t>김민준(Velopert) 지음</t>
+  </si>
+  <si>
+    <t>HBM000030937</t>
+  </si>
+  <si>
+    <t>598.104-김19ㄴ</t>
+  </si>
+  <si>
+    <t>내가 너라도 그랬을 거야 : 이수네 집 와글와글 행복 탐험기</t>
+  </si>
+  <si>
+    <t>김나윤 지음</t>
+  </si>
+  <si>
+    <t>반월도서관 4월 2차 희망도서 입수목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000030939</t>
+  </si>
+  <si>
+    <t>929.92-로89ㄹㅎ</t>
+  </si>
+  <si>
+    <t>루마니아 : 미완의 혁명</t>
+  </si>
+  <si>
+    <t>스티븐 로퍼 지음 ; 허창배, 최진우 [공]옮김</t>
+  </si>
+  <si>
+    <t>한양대학교 출판부</t>
+  </si>
+  <si>
+    <t>HBM000030940</t>
+  </si>
+  <si>
+    <t>816.7-김64ㅇ</t>
+  </si>
+  <si>
+    <t>여행의 이유 : 김영하 산문</t>
+  </si>
+  <si>
+    <t>김영하 지음</t>
+  </si>
+  <si>
+    <t>HBM000030941</t>
+  </si>
+  <si>
+    <t>331.1-로57ㅍㅇ</t>
+  </si>
+  <si>
+    <t>팩트풀니스</t>
+  </si>
+  <si>
+    <t>한스 로슬링, 올라 로슬링, 안나 로슬링 뢴룬드 [공]지음 ; 이창신 옮김</t>
+  </si>
+  <si>
+    <t>HBM000030942</t>
+  </si>
+  <si>
+    <t>005.13-남73ㅅ</t>
+  </si>
+  <si>
+    <t>C언어 코딩 도장 = Learn C the right way</t>
+  </si>
+  <si>
+    <t>남재윤 지음</t>
+  </si>
+  <si>
+    <t>HBM000030943</t>
+  </si>
+  <si>
+    <t>아동 375.2-김38ㅊ</t>
+  </si>
+  <si>
+    <t>(미키와 함께하는)초등 1학년 생활 사전</t>
+  </si>
+  <si>
+    <t>김미애 글</t>
+  </si>
+  <si>
+    <t>HBM000030944</t>
+  </si>
+  <si>
+    <t>아동 403-서42ㅇ-6</t>
+  </si>
+  <si>
+    <t>정글에서 살아남기 : 마루의 어드벤처. 6</t>
+  </si>
+  <si>
+    <t>[대원키즈 편집부 편]</t>
+  </si>
+  <si>
+    <t>대원키즈</t>
+  </si>
+  <si>
+    <t>HBM000030945</t>
+  </si>
+  <si>
+    <t>843-어48ㅇㅈ-1</t>
+  </si>
+  <si>
+    <t>알함브라. 1</t>
+  </si>
+  <si>
+    <t>워싱턴 어빙 지음 ; 정지인 옮김</t>
+  </si>
+  <si>
+    <t>혜윰</t>
+  </si>
+  <si>
+    <t>HBM000030946</t>
+  </si>
+  <si>
+    <t>843-어48ㅇㅈ-2</t>
+  </si>
+  <si>
+    <t>알함브라. 2</t>
+  </si>
+  <si>
+    <t>HBM000030947</t>
+  </si>
+  <si>
+    <t>740.7-김74ㅇ</t>
+  </si>
+  <si>
+    <t>(엄마가 시작하고 아이가 끝내는)엄마표 영어</t>
+  </si>
+  <si>
+    <t>김정은 지음</t>
+  </si>
+  <si>
+    <t>한빛라이프</t>
+  </si>
+  <si>
+    <t>HBM000030948</t>
+  </si>
+  <si>
+    <t>981.102-김56ㄱ</t>
+  </si>
+  <si>
+    <t>교과서가 쉬워지는 주말여행</t>
+  </si>
+  <si>
+    <t>김수진, 박은하 [공]지음</t>
+  </si>
+  <si>
+    <t>HBM000030949</t>
+  </si>
+  <si>
+    <t>594.5-정75ㅇ</t>
+  </si>
+  <si>
+    <t>(육수 없이 황금 비율 양념으로 맛낸)옥주부의 진짜 쉬운 집밥 레시피</t>
+  </si>
+  <si>
+    <t>정종철지음</t>
+  </si>
+  <si>
+    <t>라이스트리</t>
+  </si>
+  <si>
+    <t>HBM000030950</t>
+  </si>
+  <si>
+    <t>593.5-모29ㄹㄱ</t>
+  </si>
+  <si>
+    <t>(4주 만에 완성하는)레깅스핏 스트레칭</t>
+  </si>
+  <si>
+    <t>모리 다쿠로 지음 ; 김현정 옮김</t>
+  </si>
+  <si>
+    <t>북라이프</t>
+  </si>
+  <si>
+    <t>HBM000030951</t>
+  </si>
+  <si>
+    <t>594.71-권93ㅅ</t>
+  </si>
+  <si>
+    <t>스콘 수업 : 작업실 301의 친절한 베이킹</t>
+  </si>
+  <si>
+    <t>권향미 지음</t>
+  </si>
+  <si>
+    <t>Cypress</t>
+  </si>
+  <si>
+    <t>HBM000030952</t>
+  </si>
+  <si>
+    <t>594.71-권93ㅁ</t>
+  </si>
+  <si>
+    <t>마들렌＆피낭시에 수업 : 작업실 301의 친절한 베이킹</t>
+  </si>
+  <si>
+    <t>cypress</t>
+  </si>
+  <si>
+    <t>HBM000030953</t>
+  </si>
+  <si>
+    <t>370.18-김94ㄱ</t>
+  </si>
+  <si>
+    <t>교사 상처 : 고단한 교사들을 위한 치유 심리학</t>
+  </si>
+  <si>
+    <t>김현수 지음</t>
+  </si>
+  <si>
+    <t>에듀니티</t>
+  </si>
+  <si>
+    <t>HBM000030954</t>
+  </si>
+  <si>
+    <t>029.4-김56ㄷ</t>
+  </si>
+  <si>
+    <t>듣는 독서로 완성하는 아이의 공부 내공</t>
+  </si>
+  <si>
+    <t>김수현 지음</t>
+  </si>
+  <si>
+    <t>청림Life</t>
+  </si>
+  <si>
+    <t>HBM000030955</t>
+  </si>
+  <si>
+    <t>230.4-정63ㅇ</t>
+  </si>
+  <si>
+    <t>일곱 날의 빛, 아이슬란드</t>
+  </si>
+  <si>
+    <t>정양권 글·사진</t>
+  </si>
+  <si>
+    <t>홍성사</t>
+  </si>
+  <si>
+    <t>HBM000030956</t>
+  </si>
+  <si>
+    <t>181.38-융87ㅎㅈ</t>
+  </si>
+  <si>
+    <t>환상 해석</t>
+  </si>
+  <si>
+    <t>칼 구스타프 융 지음 ; 정명진 옮김</t>
+  </si>
+  <si>
+    <t>부글북스</t>
+  </si>
+  <si>
+    <t>HBM000030957</t>
+  </si>
+  <si>
+    <t>331-이52ㅇ</t>
+  </si>
+  <si>
+    <t>아틀라스의 발 : 포스트식민 상황에서 부르디외 읽기</t>
+  </si>
+  <si>
+    <t>이상길 지음</t>
+  </si>
+  <si>
+    <t>문학과지성사</t>
+  </si>
+  <si>
+    <t>HBM000030958</t>
+  </si>
+  <si>
+    <t>810.9-오94ㅈ</t>
+  </si>
+  <si>
+    <t>지극히 문학적인 취향 : 한국문학의 정상성을 묻다</t>
+  </si>
+  <si>
+    <t>오혜진 지음</t>
+  </si>
+  <si>
+    <t>오월의봄</t>
+  </si>
+  <si>
+    <t>HBM000030959</t>
+  </si>
+  <si>
+    <t>926.3-하48ㅁㄱ</t>
+  </si>
+  <si>
+    <t>모더니티의 수도, 파리</t>
+  </si>
+  <si>
+    <t>데이비드 하비 지음 ; 김병화 옮김</t>
+  </si>
+  <si>
+    <t>글항아리</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2133,7 +2767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2171,13 +2805,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2237,6 +2901,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2551,11 +3230,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70345545-C30F-4DD6-A492-915D5813DA77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3324,8 +4003,21 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765C35F5-0E21-4ACF-B3CA-3FDBF2CB77FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3938,11 +4630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A458E67-1FDC-487D-A500-BD961AA066A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4680,11 +5372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF37767D-916D-4F71-9105-D21A2CD11ADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5201,7 +5893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D75265-8D5D-43A1-84CA-3606C15B4652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5682,11 +6374,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEEF6B9-A0DC-4984-9F15-9EDB4877E6F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6249,20 +6941,1309 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11AC7FB-E262-474F-907E-04EEF10580D6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="H3" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="H5" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="H6" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>690</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="H7" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="H8" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="H9" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>701</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>702</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="H10" s="22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="H11" s="22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="H12" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="H13" s="22">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="H14" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="H15" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="H16" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>15</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="H17" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="H18" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>749</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="H19" s="22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>18</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="H20" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="H21" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="H22" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>21</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="H23" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>22</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="H24" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>23</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="H25" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>24</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="H26" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111FAE82-A545-4CE1-85BB-998A5E6D831F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>785</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="H3" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>790</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="H6" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="H8" s="23">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="H9" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>814</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="H10" s="23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="H11" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="H12" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>827</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="H13" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>831</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="H14" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>13</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="H15" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>14</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>841</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>843</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="H16" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>15</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="H17" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>16</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="H18" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>17</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="H19" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>18</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="H20" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>19</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="H21" s="23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>20</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="H22" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="H23" s="23">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/반월도서관희망도서목록2019.xlsx
+++ b/반월도서관희망도서목록2019.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_GitRepoTortoise\01_Doc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_Doc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="JAN1st" sheetId="3" r:id="rId1"/>
-    <sheet name="JAN2nd" sheetId="4" r:id="rId2"/>
-    <sheet name="FEB1st" sheetId="5" r:id="rId3"/>
-    <sheet name="FEB2nd" sheetId="6" r:id="rId4"/>
-    <sheet name="MAR1st" sheetId="7" r:id="rId5"/>
-    <sheet name="MAR2nd" sheetId="8" r:id="rId6"/>
-    <sheet name="Apr1st" sheetId="9" r:id="rId7"/>
-    <sheet name="Apr2nd" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId10"/>
+    <sheet name="JAN1" sheetId="3" r:id="rId1"/>
+    <sheet name="JAN2" sheetId="4" r:id="rId2"/>
+    <sheet name="FEB1" sheetId="5" r:id="rId3"/>
+    <sheet name="FEB2" sheetId="6" r:id="rId4"/>
+    <sheet name="MAR1" sheetId="7" r:id="rId5"/>
+    <sheet name="MAR2" sheetId="8" r:id="rId6"/>
+    <sheet name="APR1" sheetId="9" r:id="rId7"/>
+    <sheet name="APR2" sheetId="10" r:id="rId8"/>
+    <sheet name="MAY1" sheetId="11" r:id="rId9"/>
+    <sheet name="MAY2" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1066">
   <si>
     <t>반월도서관 1월 1차 희망도서 입수목록(31권)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1127,9 +1128,6 @@
     <t>199.1-히29ㅇㅂ</t>
   </si>
   <si>
-    <t>이제 좀 느긋하게 지내볼까 합니다</t>
-  </si>
-  <si>
     <t>히로세 유코 지음 ; 박정임 옮김</t>
   </si>
   <si>
@@ -1368,9 +1366,6 @@
     <t>818-박17ㅇ</t>
   </si>
   <si>
-    <t>우리가 행복해질 시간은 지금이야</t>
-  </si>
-  <si>
     <t>박근호 지음</t>
   </si>
   <si>
@@ -1380,9 +1375,6 @@
     <t>590.4-본89ㅇㅇ</t>
   </si>
   <si>
-    <t>아직 즐거운 날이 잔뜩 남았습니다</t>
-  </si>
-  <si>
     <t>bonpon [공]지음 ; 이민영 옮김</t>
   </si>
   <si>
@@ -1405,9 +1397,6 @@
   </si>
   <si>
     <t>325.211-사52ㄴㅈ</t>
-  </si>
-  <si>
-    <t>나는 습관을 조금 바꾸기로 했다</t>
   </si>
   <si>
     <t>사사키 후미오 지음 ; 정지영 옮김</t>
@@ -1651,9 +1640,6 @@
     <t>325.211-이57ㄴ</t>
   </si>
   <si>
-    <t>노마드 비즈니스맨 : 1인 기업가 부자의 성공 시크릿</t>
-  </si>
-  <si>
     <t>이승준 지음</t>
   </si>
   <si>
@@ -1814,9 +1800,6 @@
     <t>325.211-샤29ㅂㄱ</t>
   </si>
   <si>
-    <t>변화의 시작 5AM 클럽</t>
-  </si>
-  <si>
     <t>로빈 샤르마 지음 ; 김미정 옮김</t>
   </si>
   <si>
@@ -2082,9 +2065,6 @@
     <t>694.304-안74ㄴ</t>
   </si>
   <si>
-    <t>나는 오늘 모리셔스의 바닷가를 달린다 = Running in Mauritius</t>
-  </si>
-  <si>
     <t>안정은 지음</t>
   </si>
   <si>
@@ -2094,9 +2074,6 @@
     <t>598.1-오15ㅇ</t>
   </si>
   <si>
-    <t>아빠 수업</t>
-  </si>
-  <si>
     <t>오광조 지음</t>
   </si>
   <si>
@@ -2121,9 +2098,6 @@
     <t>325.211-김25ㅈ</t>
   </si>
   <si>
-    <t>직딩의 정석 : Employee 101</t>
-  </si>
-  <si>
     <t>김동근 지음</t>
   </si>
   <si>
@@ -2133,9 +2107,6 @@
     <t>325.23-김83ㅈ</t>
   </si>
   <si>
-    <t>직원존중 주식회사 : 한국형 조직문화 혁신전략</t>
-  </si>
-  <si>
     <t>김철영 지음</t>
   </si>
   <si>
@@ -2143,9 +2114,6 @@
   </si>
   <si>
     <t>656.2-강57ㅇ</t>
-  </si>
-  <si>
-    <t>(강승희의)인물 드로잉 bible</t>
   </si>
   <si>
     <t>강승희 지음</t>
@@ -2206,9 +2174,6 @@
     <t>813.7-김27ㅇ</t>
   </si>
   <si>
-    <t>아디오스 아툰 = Adios Atun</t>
-  </si>
-  <si>
     <t>김득진 지음</t>
   </si>
   <si>
@@ -2221,9 +2186,6 @@
     <t>982.702-조74ㅌ</t>
   </si>
   <si>
-    <t>타파스 &amp; 카페 맛있는 스페인에 가자</t>
-  </si>
-  <si>
     <t>조정희 지음</t>
   </si>
   <si>
@@ -2251,9 +2213,6 @@
     <t>327.04-요87ㅁㅈ</t>
   </si>
   <si>
-    <t>미라클 일주일 지갑</t>
-  </si>
-  <si>
     <t>요코야마 미쓰아키 지음 ; 정세영 옮김</t>
   </si>
   <si>
@@ -2338,9 +2297,6 @@
     <t>833.6-아29ㅈㄱ-1</t>
   </si>
   <si>
-    <t>자물쇠 잠긴 남자. 상</t>
-  </si>
-  <si>
     <t>아리스가와 아리스 지음 ; 김선영 옮김</t>
   </si>
   <si>
@@ -2362,9 +2318,6 @@
     <t>005.118-아19ㅁㅇ</t>
   </si>
   <si>
-    <t>모던 리액트/리덕스 프로그래밍</t>
-  </si>
-  <si>
     <t>아나이 히로유키 [외]지음, 윤인성 옮김</t>
   </si>
   <si>
@@ -2387,9 +2340,6 @@
   </si>
   <si>
     <t>598.104-김19ㄴ</t>
-  </si>
-  <si>
-    <t>내가 너라도 그랬을 거야 : 이수네 집 와글와글 행복 탐험기</t>
   </si>
   <si>
     <t>김나윤 지음</t>
@@ -2688,6 +2638,634 @@
   </si>
   <si>
     <t>글항아리</t>
+  </si>
+  <si>
+    <t>반월도서관 5월 1차 희망도서 입수목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000031676</t>
+  </si>
+  <si>
+    <t>340-서66ㅈ</t>
+  </si>
+  <si>
+    <t>정치학의 이해</t>
+  </si>
+  <si>
+    <t>서울대학교 정치외교학부 정치학 전공 교수진 지음</t>
+  </si>
+  <si>
+    <t>박영사</t>
+  </si>
+  <si>
+    <t>HBM000031677</t>
+  </si>
+  <si>
+    <t>321.55-김55ㄴ</t>
+  </si>
+  <si>
+    <t>나는 무엇을 위해 출근하는가</t>
+  </si>
+  <si>
+    <t>김소현 지음</t>
+  </si>
+  <si>
+    <t>플랜비디자인</t>
+  </si>
+  <si>
+    <t>HBM000031678</t>
+  </si>
+  <si>
+    <t>981.2402-박14ㄴ</t>
+  </si>
+  <si>
+    <t>느리게 천천히 가도 괜찮아</t>
+  </si>
+  <si>
+    <t>박건우 지음</t>
+  </si>
+  <si>
+    <t>소담</t>
+  </si>
+  <si>
+    <t>HBM000031679</t>
+  </si>
+  <si>
+    <t>005.567-신67ㅍ</t>
+  </si>
+  <si>
+    <t>(2019)프리미어프로&amp;애프터이펙트CC 무작정따라하기</t>
+  </si>
+  <si>
+    <t>신의철, 이현석, 김나현 [공]지음</t>
+  </si>
+  <si>
+    <t>HBM000031680</t>
+  </si>
+  <si>
+    <t>325.21-김38ㅎ</t>
+  </si>
+  <si>
+    <t>히피스베이글 : 오늘도 인생 한빵!</t>
+  </si>
+  <si>
+    <t>김민경 지음</t>
+  </si>
+  <si>
+    <t>리얼북스</t>
+  </si>
+  <si>
+    <t>HBM000031681</t>
+  </si>
+  <si>
+    <t>231.1-김18ㅇ</t>
+  </si>
+  <si>
+    <t>유일신 야훼 : 역사와 그의 실체</t>
+  </si>
+  <si>
+    <t>김기흥 지음</t>
+  </si>
+  <si>
+    <t>삼인</t>
+  </si>
+  <si>
+    <t>HBM000031682</t>
+  </si>
+  <si>
+    <t>236.902-타66ㄱㅈ</t>
+  </si>
+  <si>
+    <t>기독교는 식사에서 시작되었다</t>
+  </si>
+  <si>
+    <t>할 타우직 지음 ; 예가교회 엮음 ; 조익표 [외]옮김</t>
+  </si>
+  <si>
+    <t>동연</t>
+  </si>
+  <si>
+    <t>HBM000031683</t>
+  </si>
+  <si>
+    <t>897.7-루38ㄹㅈ</t>
+  </si>
+  <si>
+    <t>루미 시집</t>
+  </si>
+  <si>
+    <t>잘랄 아드린 무하마드 루미 지음 ; 정제희 옮김</t>
+  </si>
+  <si>
+    <t>시공사</t>
+  </si>
+  <si>
+    <t>HBM000031684</t>
+  </si>
+  <si>
+    <t>325.21-김38ㅇ</t>
+  </si>
+  <si>
+    <t>육아 말고 뭐라도</t>
+  </si>
+  <si>
+    <t>김미애 [외]지음</t>
+  </si>
+  <si>
+    <t>세종서적</t>
+  </si>
+  <si>
+    <t>HBM000031685</t>
+  </si>
+  <si>
+    <t>325.571-강38ㅂ</t>
+  </si>
+  <si>
+    <t>브랜드가 되어 간다는 것 : 마케터 강민호의 브랜드 에세이</t>
+  </si>
+  <si>
+    <t>강민호 지음</t>
+  </si>
+  <si>
+    <t>턴어라운드</t>
+  </si>
+  <si>
+    <t>HBM000031686</t>
+  </si>
+  <si>
+    <t>814.7-은66ㄷ</t>
+  </si>
+  <si>
+    <t>다가오는 말들</t>
+  </si>
+  <si>
+    <t>은유 지음</t>
+  </si>
+  <si>
+    <t>HBM000031687</t>
+  </si>
+  <si>
+    <t>아동 219-양88ㅊ</t>
+  </si>
+  <si>
+    <t>처음 만나는 그리스 로마 신화</t>
+  </si>
+  <si>
+    <t>토니 양 글·그림</t>
+  </si>
+  <si>
+    <t>리틀몽키</t>
+  </si>
+  <si>
+    <t>HBM000031688</t>
+  </si>
+  <si>
+    <t>833.6-무29ㅂㄱ</t>
+  </si>
+  <si>
+    <t>반딧불이 : 무라카미 하루키 소설</t>
+  </si>
+  <si>
+    <t>무라카미 하루키 지음 ; 권남희 옮김</t>
+  </si>
+  <si>
+    <t>HBM000031689</t>
+  </si>
+  <si>
+    <t>유아원서 843-W45b</t>
+  </si>
+  <si>
+    <t>Bunny cakes</t>
+  </si>
+  <si>
+    <t>Rosemary Wells</t>
+  </si>
+  <si>
+    <t>HBM000031690</t>
+  </si>
+  <si>
+    <t>833.6-히12ㄴㅇ</t>
+  </si>
+  <si>
+    <t>나미야 잡화점의 기적 : 히가시노 게이고 장편소설</t>
+  </si>
+  <si>
+    <t>HBM000031691</t>
+  </si>
+  <si>
+    <t>181.845-클29ㅇㅇ</t>
+  </si>
+  <si>
+    <t>아주 작은 습관의 힘 : 최고의 변화는 어떻게 만들어지는가</t>
+  </si>
+  <si>
+    <t>제임스 클리어 지음 ; 이한이 옮김</t>
+  </si>
+  <si>
+    <t>비즈니스북스</t>
+  </si>
+  <si>
+    <t>HBM000031692</t>
+  </si>
+  <si>
+    <t>813.7-김29ㅇ</t>
+  </si>
+  <si>
+    <t>일주일 : 김려령 장편소설</t>
+  </si>
+  <si>
+    <t>김려령 지음</t>
+  </si>
+  <si>
+    <t>HBM000031693</t>
+  </si>
+  <si>
+    <t>326.79-서38ㅇ</t>
+  </si>
+  <si>
+    <t>유튜브는 처음입니다만</t>
+  </si>
+  <si>
+    <t>서민재 지음</t>
+  </si>
+  <si>
+    <t>카시오페아</t>
+  </si>
+  <si>
+    <t>HBM000031694</t>
+  </si>
+  <si>
+    <t>802-강76ㄷ</t>
+  </si>
+  <si>
+    <t>당신의 글은 어떻게 시작되었나요</t>
+  </si>
+  <si>
+    <t>강준서 [외]지음</t>
+  </si>
+  <si>
+    <t>디자인이음</t>
+  </si>
+  <si>
+    <t>HBM000031695</t>
+  </si>
+  <si>
+    <t>유아 808.9-바29ㅊ-80</t>
+  </si>
+  <si>
+    <t>발레리나 토끼</t>
+  </si>
+  <si>
+    <t>도요후쿠 마키코 글·그림 ; 김소연 옮김</t>
+  </si>
+  <si>
+    <t>천개의바람</t>
+  </si>
+  <si>
+    <t>HBM000031696</t>
+  </si>
+  <si>
+    <t>유아 813.8-박94ㅇ</t>
+  </si>
+  <si>
+    <t>야호! 수박</t>
+  </si>
+  <si>
+    <t>박혜선 글 ; 조미자 그림</t>
+  </si>
+  <si>
+    <t>아이앤북</t>
+  </si>
+  <si>
+    <t>반월도서관 5월 2차 희망도서 입수목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000031698</t>
+  </si>
+  <si>
+    <t>005.118-구34ㅋ2</t>
+  </si>
+  <si>
+    <t>코드로 배우는 스프링 웹 프로젝트 : 현업 개발을 위한 단계별 실습서</t>
+  </si>
+  <si>
+    <t>구멍가게 코딩단 지음</t>
+  </si>
+  <si>
+    <t>남가람북스</t>
+  </si>
+  <si>
+    <t>HBM000031699</t>
+  </si>
+  <si>
+    <t>517.32-나87ㅇㅊ</t>
+  </si>
+  <si>
+    <t>(몸이 뻣뻣한 사람을 위한) 유연강좌</t>
+  </si>
+  <si>
+    <t>나카노 제임스 슈이치 지음 ; 최정주 옮김</t>
+  </si>
+  <si>
+    <t>비타북스</t>
+  </si>
+  <si>
+    <t>HBM000031700</t>
+  </si>
+  <si>
+    <t>아동 740.7-김54ㅇ</t>
+  </si>
+  <si>
+    <t>엄마표 영어 100일의 기적 : 100일 후에는 엄마도, 아이도 영어로 말한다!</t>
+  </si>
+  <si>
+    <t>김성희, 고선영 [공]지음</t>
+  </si>
+  <si>
+    <t>넥서스</t>
+  </si>
+  <si>
+    <t>HBM000031701</t>
+  </si>
+  <si>
+    <t>609-위17ㅂㄱ</t>
+  </si>
+  <si>
+    <t>보이는 것과의 대화 : 이미지는 어떻게 우리에게 말을 거는가</t>
+  </si>
+  <si>
+    <t>르네 위그 [지음] ; 곽광수 옮김</t>
+  </si>
+  <si>
+    <t>열화당</t>
+  </si>
+  <si>
+    <t>HBM000031702</t>
+  </si>
+  <si>
+    <t>747.5-누29ㅇ-[CD1]</t>
+  </si>
+  <si>
+    <t>(완전절친) SPA : 입사 승진 말하기 시럼</t>
+  </si>
+  <si>
+    <t>누리컨텐츠 저</t>
+  </si>
+  <si>
+    <t>글로벌문화원</t>
+  </si>
+  <si>
+    <t>HBM000031703</t>
+  </si>
+  <si>
+    <t>834-무29ㅋㄱ</t>
+  </si>
+  <si>
+    <t>코끼리 공장의 해피엔드 : 무라카미 하루키 에세이 걸작선</t>
+  </si>
+  <si>
+    <t>무라카미 하루키 지음 ; 안자이 미즈마루 그림 ; 김난주 옮김</t>
+  </si>
+  <si>
+    <t>HBM000031704</t>
+  </si>
+  <si>
+    <t>834-무29ㅂㄱ</t>
+  </si>
+  <si>
+    <t>밸런타인데이의 무말랭이 : 무라카미 하루키 에세이 걸작선</t>
+  </si>
+  <si>
+    <t>HBM000031705</t>
+  </si>
+  <si>
+    <t>834-무29ㅅㄱ</t>
+  </si>
+  <si>
+    <t>세일러복을 입은 연필 : 무라카미 하루키 에세이 걸작선</t>
+  </si>
+  <si>
+    <t>HBM000031706</t>
+  </si>
+  <si>
+    <t>834-무29ㅎㄱ</t>
+  </si>
+  <si>
+    <t>해 뜨는 나라의 공장 : 무라카미 하루키 에세이 걸작선</t>
+  </si>
+  <si>
+    <t>HBM000031707</t>
+  </si>
+  <si>
+    <t>쿨하고 와일드한 백일몽 : 무라카미 하루키 에세이 걸작선</t>
+  </si>
+  <si>
+    <t>HBM000031708</t>
+  </si>
+  <si>
+    <t>아동 808.9-리88ㄹ-20</t>
+  </si>
+  <si>
+    <t>아빠가 아플 때</t>
+  </si>
+  <si>
+    <t>한라경 글 ; 이보라 그림</t>
+  </si>
+  <si>
+    <t>리틀씨앤톡</t>
+  </si>
+  <si>
+    <t>HBM000031709</t>
+  </si>
+  <si>
+    <t>아동 388.111-한93ㅋ</t>
+  </si>
+  <si>
+    <t>콩 한 알과 송아지</t>
+  </si>
+  <si>
+    <t>한해숙 글 ; 김주경 그림</t>
+  </si>
+  <si>
+    <t>appletree tales(애플트리태일즈)</t>
+  </si>
+  <si>
+    <t>HBM000031710</t>
+  </si>
+  <si>
+    <t>유아 321.55-박14ㅌ</t>
+  </si>
+  <si>
+    <t>태풍이 온다, 긴급 출동!</t>
+  </si>
+  <si>
+    <t>박경화 글 ; 강전희 그림</t>
+  </si>
+  <si>
+    <t>HBM000031711</t>
+  </si>
+  <si>
+    <t>327.04-정67ㅅ</t>
+  </si>
+  <si>
+    <t>실패하지 않는 신혼 재테크 : 1000만 원을 10억 원으로 만든다!</t>
+  </si>
+  <si>
+    <t>정은경 지음</t>
+  </si>
+  <si>
+    <t>BM황금부엉이</t>
+  </si>
+  <si>
+    <t>HBM000031712</t>
+  </si>
+  <si>
+    <t>189.2-성66ㅇ</t>
+  </si>
+  <si>
+    <t>이제껏 너를 친구라고 생각했는데 : 친구가 친구가 아니었음을 깨달은 당신을 위한 관계심리학</t>
+  </si>
+  <si>
+    <t>성유미 지음</t>
+  </si>
+  <si>
+    <t>HBM000031713</t>
+  </si>
+  <si>
+    <t>189.2-클29ㄱㅇ</t>
+  </si>
+  <si>
+    <t>기운 빼앗는 사람, 내 인생에서 빼버리세요 : 적당히 베풀고 제대로 존중받기 위한 관계의 심리학</t>
+  </si>
+  <si>
+    <t>스테판 클레르제 지음 ; 이주영 옮김</t>
+  </si>
+  <si>
+    <t>HBM000031714</t>
+  </si>
+  <si>
+    <t>191.1-누57ㅂㄱ</t>
+  </si>
+  <si>
+    <t>분노와 용서 : 적개심, 아량, 정의</t>
+  </si>
+  <si>
+    <t>마사 C. 누스바움 지음 ; 강동혁 옮김</t>
+  </si>
+  <si>
+    <t>HBM000031715</t>
+  </si>
+  <si>
+    <t>654.5-스87ㅁㅇ</t>
+  </si>
+  <si>
+    <t>미술 해부학 자료집</t>
+  </si>
+  <si>
+    <t>프리츠 스키더 지음 ; 이유민 옮김</t>
+  </si>
+  <si>
+    <t>EJONG(이종)</t>
+  </si>
+  <si>
+    <t>HBM000031716</t>
+  </si>
+  <si>
+    <t>656.2-최94ㅁ</t>
+  </si>
+  <si>
+    <t>모두의 드로잉, 실습편</t>
+  </si>
+  <si>
+    <t>최형석 지음</t>
+  </si>
+  <si>
+    <t>투데이북스</t>
+  </si>
+  <si>
+    <t>HBM000031717</t>
+  </si>
+  <si>
+    <t>657.5-토58ㅅㄱ</t>
+  </si>
+  <si>
+    <t>(Toshi의) 선과 음영</t>
+  </si>
+  <si>
+    <t>Toshi 지음 ; 김재훈 옮김</t>
+  </si>
+  <si>
+    <t>한스미디어</t>
+  </si>
+  <si>
+    <t>나는 오늘 모리셔스의 바닷가를 달린다 = Running in Mauritius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠 수업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직딩의 정석 : Employee 101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원존중 주식회사 : 한국형 조직문화 혁신전략</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(강승희의)인물 드로잉 bible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아디오스 아툰 = Adios Atun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타파스 &amp; 카페 맛있는 스페인에 가자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미라클 일주일 지갑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자물쇠 잠긴 남자. 상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모던 리액트/리덕스 프로그래밍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 너라도 그랬을 거야 : 이수네 집 와글와글 행복 탐험기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 좀 느긋하게 지내볼까 합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 즐거운 날이 잔뜩 남았습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 행복해질 시간은 지금이야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 습관을 조금 바꾸기로 했다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노마드 비즈니스맨 : 1인 기업가 부자의 성공 시크릿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화의 시작 5AM 클럽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2729,7 +3307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2763,6 +3341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2841,7 +3425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2899,9 +3483,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2916,6 +3497,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3234,7 +3830,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3249,15 +3845,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -4005,9 +4601,597 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="89.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>964</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>965</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>967</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>968</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>969</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>970</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>971</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>972</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>973</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>974</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>975</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>976</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>980</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>983</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>984</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>986</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>987</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>988</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>994</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>995</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>997</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>998</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H13" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="H15" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="H17" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="H19" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H20" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H21" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H22" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -4020,8 +5204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4036,15 +5220,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -4514,7 +5698,7 @@
       <c r="C22" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="28" t="s">
         <v>242</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -4634,7 +5818,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4650,16 +5834,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -5193,13 +6377,13 @@
         <v>265</v>
       </c>
       <c r="E22" s="18" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>362</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>363</v>
       </c>
       <c r="H22" s="11">
         <v>2018</v>
@@ -5210,22 +6394,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>365</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>300</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>367</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>368</v>
       </c>
       <c r="H23" s="11">
         <v>2015</v>
@@ -5236,22 +6420,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="G24" s="12" t="s">
         <v>373</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>374</v>
       </c>
       <c r="H24" s="11">
         <v>2019</v>
@@ -5262,19 +6446,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>377</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>378</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>21</v>
@@ -5288,22 +6472,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E26" s="18" t="s">
+      <c r="F26" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="H26" s="11">
         <v>2019</v>
@@ -5314,22 +6498,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>388</v>
       </c>
       <c r="H27" s="11">
         <v>2019</v>
@@ -5340,22 +6524,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="F28" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="H28" s="11">
         <v>2015</v>
@@ -5376,7 +6560,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5391,15 +6575,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="A1" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -5427,16 +6611,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>35</v>
@@ -5450,19 +6634,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="G4" s="4">
         <v>2017</v>
@@ -5473,19 +6657,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="G5" s="4">
         <v>2017</v>
@@ -5496,19 +6680,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="G6" s="4">
         <v>2017</v>
@@ -5519,19 +6703,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="G7" s="4">
         <v>2019</v>
@@ -5542,19 +6726,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="G8" s="4">
         <v>2017</v>
@@ -5565,19 +6749,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="G9" s="4">
         <v>2019</v>
@@ -5588,19 +6772,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="G10" s="4">
         <v>2019</v>
@@ -5611,19 +6795,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="G11" s="4">
         <v>2019</v>
@@ -5634,16 +6818,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>143</v>
@@ -5657,16 +6841,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>49</v>
@@ -5680,19 +6864,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>451</v>
       </c>
       <c r="G14" s="4">
         <v>2019</v>
@@ -5703,16 +6887,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>454</v>
+        <v>1063</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>148</v>
@@ -5726,16 +6910,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>333</v>
@@ -5749,19 +6933,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>464</v>
       </c>
       <c r="G17" s="4">
         <v>2017</v>
@@ -5772,19 +6956,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>469</v>
       </c>
       <c r="G18" s="4">
         <v>2019</v>
@@ -5795,16 +6979,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>211</v>
@@ -5818,19 +7002,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>478</v>
       </c>
       <c r="G20" s="4">
         <v>2019</v>
@@ -5841,16 +7025,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>202</v>
@@ -5864,19 +7048,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>483</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="G22" s="4">
         <v>2019</v>
@@ -5897,7 +7081,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5912,16 +7096,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="A1" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
@@ -5952,22 +7136,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="H3" s="5">
         <v>2019</v>
@@ -5978,22 +7162,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="H4" s="5">
         <v>2018</v>
@@ -6004,22 +7188,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="H5" s="5">
         <v>2018</v>
@@ -6030,22 +7214,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="H6" s="5">
         <v>2017</v>
@@ -6056,19 +7240,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>265</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>287</v>
@@ -6082,22 +7266,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="H8" s="5">
         <v>2019</v>
@@ -6108,22 +7292,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>522</v>
       </c>
       <c r="H9" s="5">
         <v>2019</v>
@@ -6134,22 +7318,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="H10" s="5">
         <v>2019</v>
@@ -6160,22 +7344,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="H11" s="5">
         <v>2019</v>
@@ -6186,22 +7370,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>535</v>
+      <c r="E12" s="27" t="s">
+        <v>1064</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H12" s="5">
         <v>2019</v>
@@ -6212,22 +7396,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>265</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H13" s="5">
         <v>2018</v>
@@ -6238,22 +7422,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>265</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H14" s="5">
         <v>2015</v>
@@ -6264,19 +7448,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>265</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>21</v>
@@ -6290,22 +7474,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H16" s="5">
         <v>2019</v>
@@ -6316,22 +7500,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H17" s="5">
         <v>2018</v>
@@ -6342,22 +7526,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H18" s="5">
         <v>2019</v>
@@ -6378,7 +7562,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6393,15 +7577,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="A1" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -6429,19 +7613,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G3" s="11">
         <v>2017</v>
@@ -6452,19 +7636,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G4" s="11">
         <v>2019</v>
@@ -6475,19 +7659,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G5" s="11">
         <v>2018</v>
@@ -6498,16 +7682,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>273</v>
@@ -6521,16 +7705,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>589</v>
+        <v>583</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>1065</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>54</v>
@@ -6544,19 +7728,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="G8" s="11">
         <v>2019</v>
@@ -6567,19 +7751,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G9" s="11">
         <v>2018</v>
@@ -6590,19 +7774,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="G10" s="11">
         <v>2018</v>
@@ -6613,19 +7797,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="G11" s="11">
         <v>2018</v>
@@ -6636,19 +7820,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G12" s="11">
         <v>2019</v>
@@ -6659,19 +7843,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G13" s="11">
         <v>2018</v>
@@ -6682,19 +7866,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G14" s="11">
         <v>2019</v>
@@ -6705,19 +7889,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="G15" s="11">
         <v>2019</v>
@@ -6728,19 +7912,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G16" s="11">
         <v>2018</v>
@@ -6751,19 +7935,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G17" s="11">
         <v>2019</v>
@@ -6774,19 +7958,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G18" s="11">
         <v>2016</v>
@@ -6797,19 +7981,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G19" s="11">
         <v>2019</v>
@@ -6820,16 +8004,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>21</v>
@@ -6843,19 +8027,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G21" s="11">
         <v>2019</v>
@@ -6866,19 +8050,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="G22" s="11">
         <v>2017</v>
@@ -6889,19 +8073,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G23" s="11">
         <v>2018</v>
@@ -6912,19 +8096,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="G24" s="11">
         <v>2018</v>
@@ -6944,8 +8128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6961,662 +8145,662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="C4" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="B5" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="B6" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="B7" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>672</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>673</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>674</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>675</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="B8" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="H8" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="H11" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>704</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>705</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="H13" s="21">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="H14" s="21">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>676</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>678</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>679</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="22">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="H15" s="21">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>681</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>682</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>683</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="H5" s="22">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="H16" s="21">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>685</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>686</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>687</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>688</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="H6" s="22">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="H17" s="21">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>689</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>690</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>691</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="H7" s="22">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>728</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="H18" s="21">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>693</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>694</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>696</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="H8" s="22">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="H19" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>737</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="H20" s="21">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>697</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>698</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>699</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>700</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="H9" s="22">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="H21" s="21">
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>701</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>702</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>703</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>704</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>705</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>706</v>
-      </c>
-      <c r="H10" s="22">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>707</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>708</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>703</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>710</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="H11" s="22">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>712</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>713</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>714</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>715</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>716</v>
-      </c>
-      <c r="H12" s="22">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="H22" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>21</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="H23" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="H24" s="21">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>11</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>719</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>720</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>721</v>
-      </c>
-      <c r="H13" s="22">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <v>12</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>722</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>723</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>724</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>725</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>726</v>
-      </c>
-      <c r="H14" s="22">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <v>13</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>727</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>728</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>730</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>731</v>
-      </c>
-      <c r="H15" s="22">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>732</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>733</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>734</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>735</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>736</v>
-      </c>
-      <c r="H16" s="22">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H25" s="21">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <v>15</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>737</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>738</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>739</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>740</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>741</v>
-      </c>
-      <c r="H17" s="22">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
-        <v>16</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>742</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>743</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>744</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>745</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>746</v>
-      </c>
-      <c r="H18" s="22">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
-        <v>17</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>747</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>748</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>749</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>750</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>664</v>
-      </c>
-      <c r="H19" s="22">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <v>18</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>751</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>752</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>754</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>755</v>
-      </c>
-      <c r="H20" s="22">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>756</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>757</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>758</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>759</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>760</v>
-      </c>
-      <c r="H21" s="22">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <v>20</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>761</v>
-      </c>
-      <c r="C22" s="21" t="s">
+    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>24</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>762</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>763</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="D26" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>765</v>
-      </c>
-      <c r="H22" s="22">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
-        <v>21</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>766</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>767</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>768</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>764</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>765</v>
-      </c>
-      <c r="H23" s="22">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
-        <v>22</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>769</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>770</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>771</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>772</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>773</v>
-      </c>
-      <c r="H24" s="22">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
-        <v>23</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>774</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>777</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="H25" s="22">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
-        <v>24</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>778</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>779</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>780</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>781</v>
-      </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="21">
         <v>2019</v>
       </c>
     </row>
@@ -7634,8 +8818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7651,584 +8835,584 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>767</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="H3" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>775</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>776</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>778</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>782</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="G6" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="H6" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="B7" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>783</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>784</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>785</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="H3" s="23">
+      <c r="C8" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="H8" s="22">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="H9" s="22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>798</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="H10" s="22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="H11" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>808</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="H12" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>810</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>812</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>813</v>
+      </c>
+      <c r="H13" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>12</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>814</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="H14" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>13</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>820</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="H15" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>826</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="H16" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>828</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="H17" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>834</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="H18" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="H19" s="22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>846</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>847</v>
+      </c>
+      <c r="H20" s="22">
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>788</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>789</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>790</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>791</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="23">
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>848</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="H21" s="22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="H22" s="22">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
-        <v>3</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>792</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>794</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>795</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="H5" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
-        <v>4</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>796</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>797</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>798</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>799</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="H6" s="23">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
-        <v>5</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>800</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>803</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
-        <v>6</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>804</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>806</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>807</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>808</v>
-      </c>
-      <c r="H8" s="23">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
-        <v>7</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>809</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>813</v>
-      </c>
-      <c r="H9" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
-        <v>8</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>814</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>815</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>816</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>813</v>
-      </c>
-      <c r="H10" s="23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
-        <v>9</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>819</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>820</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>821</v>
-      </c>
-      <c r="H11" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
-        <v>10</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>822</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>823</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>824</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>825</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="H12" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>11</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>827</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>828</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>830</v>
-      </c>
-      <c r="H13" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <v>12</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>831</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>832</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>833</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>834</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>835</v>
-      </c>
-      <c r="H14" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>13</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>836</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>837</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>838</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>839</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>840</v>
-      </c>
-      <c r="H15" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
-        <v>14</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>841</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>842</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>843</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>839</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>844</v>
-      </c>
-      <c r="H16" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
-        <v>15</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>845</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>846</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>847</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>849</v>
-      </c>
-      <c r="H17" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
-        <v>16</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>850</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>851</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>852</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>853</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>854</v>
-      </c>
-      <c r="H18" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>17</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>855</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>856</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>857</v>
-      </c>
-      <c r="F19" s="24" t="s">
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>858</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>859</v>
       </c>
-      <c r="H19" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>18</v>
-      </c>
-      <c r="B20" s="24" t="s">
+      <c r="D23" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>860</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="F23" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>862</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>863</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>864</v>
-      </c>
-      <c r="H20" s="23">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
-        <v>19</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>865</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>866</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>867</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>868</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>869</v>
-      </c>
-      <c r="H21" s="23">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>870</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>871</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>872</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>873</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>874</v>
-      </c>
-      <c r="H22" s="23">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>875</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>877</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>878</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>879</v>
-      </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>2019</v>
       </c>
     </row>
@@ -8244,13 +9428,612 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="54.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>874</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>884</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>889</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>890</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="H8" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>897</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>900</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="H11" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>908</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>910</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>911</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>915</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>919</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>920</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>921</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>926</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>928</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>15</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>930</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>933</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>934</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>935</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>937</v>
+      </c>
+      <c r="H18" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>938</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="H19" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>18</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>942</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>943</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>945</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>946</v>
+      </c>
+      <c r="H20" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>947</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>948</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>949</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>950</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="H21" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>952</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>954</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>956</v>
+      </c>
+      <c r="H22" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>21</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>957</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>958</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>959</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>960</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="H23" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/반월도서관희망도서목록2019.xlsx
+++ b/반월도서관희망도서목록2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JAN1" sheetId="3" r:id="rId1"/>
@@ -3307,7 +3307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3347,6 +3347,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3425,7 +3431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3498,9 +3504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3512,6 +3515,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3845,15 +3857,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -4604,7 +4616,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4620,16 +4632,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>962</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -5204,7 +5216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -5220,15 +5232,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -5698,7 +5710,7 @@
       <c r="C22" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>242</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -5834,16 +5846,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -6575,15 +6587,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -7096,16 +7108,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
@@ -7378,7 +7390,7 @@
       <c r="D12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>1064</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -7561,8 +7573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7577,15 +7589,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -7658,22 +7670,22 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="29" t="s">
         <v>573</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="30">
         <v>2018</v>
       </c>
     </row>
@@ -7710,7 +7722,7 @@
       <c r="C7" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>1065</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -8128,8 +8140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8145,16 +8157,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -8219,7 +8231,7 @@
       <c r="D4" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>1049</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -8245,7 +8257,7 @@
       <c r="D5" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>1050</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -8271,7 +8283,7 @@
       <c r="D6" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>679</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -8531,7 +8543,7 @@
       <c r="D16" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>1056</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -8739,7 +8751,7 @@
       <c r="D24" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>1058</v>
       </c>
       <c r="F24" s="20" t="s">
@@ -8765,7 +8777,7 @@
       <c r="D25" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>760</v>
       </c>
       <c r="F25" s="20" t="s">
@@ -8791,7 +8803,7 @@
       <c r="D26" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>1059</v>
       </c>
       <c r="F26" s="20" t="s">
@@ -8819,7 +8831,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8835,16 +8847,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>765</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -9431,7 +9443,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9447,16 +9459,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>

--- a/반월도서관희망도서목록2019.xlsx
+++ b/반월도서관희망도서목록2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="JAN1" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="APR2" sheetId="10" r:id="rId8"/>
     <sheet name="MAY1" sheetId="11" r:id="rId9"/>
     <sheet name="MAY2" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId11"/>
+    <sheet name="JUN1" sheetId="13" r:id="rId11"/>
+    <sheet name="JUN2" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1287">
   <si>
     <t>반월도서관 1월 1차 희망도서 입수목록(31권)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3266,6 +3268,671 @@
   <si>
     <t>변화의 시작 5AM 클럽</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반월도서관 6월 1차 희망도서 입수목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000031720</t>
+  </si>
+  <si>
+    <t>802-배92ㅌ</t>
+  </si>
+  <si>
+    <t>퇴근길 글쓰기 수업</t>
+  </si>
+  <si>
+    <t>배학수 지음</t>
+  </si>
+  <si>
+    <t>메이트북스</t>
+  </si>
+  <si>
+    <t>HBM000031721</t>
+  </si>
+  <si>
+    <t>814.7-오54ㅁ</t>
+  </si>
+  <si>
+    <t>마흔에 비로소 나 자신이 되었다 : 꿈꾸는 마흔을 위한 성찰 에세이</t>
+  </si>
+  <si>
+    <t>오선미 지음</t>
+  </si>
+  <si>
+    <t>미다스북스</t>
+  </si>
+  <si>
+    <t>HBM000031722</t>
+  </si>
+  <si>
+    <t>982.6302-문54ㅅ</t>
+  </si>
+  <si>
+    <t>스물둘, 파리에서의 사계절</t>
+  </si>
+  <si>
+    <t>문성희 지음</t>
+  </si>
+  <si>
+    <t>하모니북</t>
+  </si>
+  <si>
+    <t>HBM000031723</t>
+  </si>
+  <si>
+    <t>181.845-기77ㅅㄱ</t>
+  </si>
+  <si>
+    <t>습관의 재발견</t>
+  </si>
+  <si>
+    <t>스티븐 기즈 지음 ; 구세희 옮김</t>
+  </si>
+  <si>
+    <t>HBM000031724</t>
+  </si>
+  <si>
+    <t>189.1-스38ㅇㄱ</t>
+  </si>
+  <si>
+    <t>어떻게 나답게 살 것인가</t>
+  </si>
+  <si>
+    <t>에밀리 에스파하니 스미스 지음 ; 김경영 옮김</t>
+  </si>
+  <si>
+    <t>HBM000031725</t>
+  </si>
+  <si>
+    <t>813.7-박36ㅈ</t>
+  </si>
+  <si>
+    <t>지상의 여자들 : 박문영 SF장편소설</t>
+  </si>
+  <si>
+    <t>박문영 지음</t>
+  </si>
+  <si>
+    <t>그래비티북스</t>
+  </si>
+  <si>
+    <t>HBM000031726</t>
+  </si>
+  <si>
+    <t>유아 813.8-우75ㅅ-1</t>
+  </si>
+  <si>
+    <t>봄 숲 봄바람 소리</t>
+  </si>
+  <si>
+    <t>우종영 글 ; 레지나 그림</t>
+  </si>
+  <si>
+    <t>파란자전거</t>
+  </si>
+  <si>
+    <t>HBM000031727</t>
+  </si>
+  <si>
+    <t>600.926-이78ㅇ-1</t>
+  </si>
+  <si>
+    <t>귀족의 시대 탐미의 발견</t>
+  </si>
+  <si>
+    <t>이지은 지음</t>
+  </si>
+  <si>
+    <t>모요사</t>
+  </si>
+  <si>
+    <t>HBM000031728</t>
+  </si>
+  <si>
+    <t>600.926-이78ㅇ-2</t>
+  </si>
+  <si>
+    <t>부르주아의 시대 근대의 발명</t>
+  </si>
+  <si>
+    <t>HBM000031729</t>
+  </si>
+  <si>
+    <t>아동 813.8-권66ㄴ</t>
+  </si>
+  <si>
+    <t>나무 도장</t>
+  </si>
+  <si>
+    <t>권윤덕 글·그림</t>
+  </si>
+  <si>
+    <t>평화를품은책</t>
+  </si>
+  <si>
+    <t>HBM000031730</t>
+  </si>
+  <si>
+    <t>유아 813.8-서78ㅇ</t>
+  </si>
+  <si>
+    <t>오늘은 5월 18일</t>
+  </si>
+  <si>
+    <t>서진선 지음</t>
+  </si>
+  <si>
+    <t>HBM000031731</t>
+  </si>
+  <si>
+    <t>유아 813.8-고94ㄱ</t>
+  </si>
+  <si>
+    <t>곰 아저씨의 선물</t>
+  </si>
+  <si>
+    <t>고혜진 글·그림</t>
+  </si>
+  <si>
+    <t>국민서관</t>
+  </si>
+  <si>
+    <t>HBM000031732</t>
+  </si>
+  <si>
+    <t>326.2-최44ㅁ</t>
+  </si>
+  <si>
+    <t>미중전쟁의 승자, 누가 세계를 지배할 것인가? : 미국편</t>
+  </si>
+  <si>
+    <t>최병일 지음</t>
+  </si>
+  <si>
+    <t>책들의정원</t>
+  </si>
+  <si>
+    <t>HBM000031733</t>
+  </si>
+  <si>
+    <t>349.42012-이54ㅁ</t>
+  </si>
+  <si>
+    <t>미중전쟁의 승자, 누가 세계를 지배할 것인가? : 중국편</t>
+  </si>
+  <si>
+    <t>이성현 지음</t>
+  </si>
+  <si>
+    <t>HBM000031734</t>
+  </si>
+  <si>
+    <t>843-패29ㅂㅎ</t>
+  </si>
+  <si>
+    <t>브링 미 백 : B. A. 패리스 장편소설</t>
+  </si>
+  <si>
+    <t>B. A. 패리스 지음 ; 황금진 옮김</t>
+  </si>
+  <si>
+    <t>arte</t>
+  </si>
+  <si>
+    <t>HBM000031735</t>
+  </si>
+  <si>
+    <t>325.555-워29ㄴㄷ</t>
+  </si>
+  <si>
+    <t>(Go Pro)네트워크 마케팅 프로가 되는 7단계</t>
+  </si>
+  <si>
+    <t>에릭 워레 지음 ; 도지영 옮김</t>
+  </si>
+  <si>
+    <t>프리렉</t>
+  </si>
+  <si>
+    <t>HBM000031736</t>
+  </si>
+  <si>
+    <t>337.2-스87ㄷ</t>
+  </si>
+  <si>
+    <t>더 웜카인드 = The womkind</t>
+  </si>
+  <si>
+    <t>스크로파 지음</t>
+  </si>
+  <si>
+    <t>스크로파</t>
+  </si>
+  <si>
+    <t>HBM000031737</t>
+  </si>
+  <si>
+    <t>유아 813.8-송92ㅈ</t>
+  </si>
+  <si>
+    <t>주먹바위</t>
+  </si>
+  <si>
+    <t>송하나 글·그림</t>
+  </si>
+  <si>
+    <t>비움과채움</t>
+  </si>
+  <si>
+    <t>HBM000031738</t>
+  </si>
+  <si>
+    <t>379.18-김66ㅎ</t>
+  </si>
+  <si>
+    <t>학습부진 아동</t>
+  </si>
+  <si>
+    <t>김유숙, 최지원, 유승림 [공]지음</t>
+  </si>
+  <si>
+    <t>이너북스</t>
+  </si>
+  <si>
+    <t>반월도서관 6월 2차 희망도서 입수목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000032822</t>
+  </si>
+  <si>
+    <t>595.4-주46ㄹㅂ</t>
+  </si>
+  <si>
+    <t>라이프 인테리어가 있는 집</t>
+  </si>
+  <si>
+    <t>주부의벗사 편집부 엮음 ; 박승희 옮김</t>
+  </si>
+  <si>
+    <t>즐거운상상</t>
+  </si>
+  <si>
+    <t>HBM000032823</t>
+  </si>
+  <si>
+    <t>838-키87ㅋㅎ</t>
+  </si>
+  <si>
+    <t>키키 키린 : 그녀가 남긴 120가지 말</t>
+  </si>
+  <si>
+    <t>키키 키린 지음 ; 현선 옮김</t>
+  </si>
+  <si>
+    <t>항해</t>
+  </si>
+  <si>
+    <t>HBM000032824</t>
+  </si>
+  <si>
+    <t>833.6081-무29ㅌㄱ-2</t>
+  </si>
+  <si>
+    <t>태엽 감는 새 연대기. 2, 예언하는 새</t>
+  </si>
+  <si>
+    <t>무라카미 하루키 지음 ; 김난주 옮김</t>
+  </si>
+  <si>
+    <t>민음사</t>
+  </si>
+  <si>
+    <t>HBM000032825</t>
+  </si>
+  <si>
+    <t>813.6081-조74ㅊ-1</t>
+  </si>
+  <si>
+    <t>천년의 질문 : 조정래 장편소설. 1</t>
+  </si>
+  <si>
+    <t>조정래 지음</t>
+  </si>
+  <si>
+    <t>해냄</t>
+  </si>
+  <si>
+    <t>HBM000032826</t>
+  </si>
+  <si>
+    <t>유아원서 808.9-N754-16[CD/1]</t>
+  </si>
+  <si>
+    <t>Where Is the green sheep?</t>
+  </si>
+  <si>
+    <t>by Mem Fox ; illustrated by Judy Horacek</t>
+  </si>
+  <si>
+    <t>Harcourt</t>
+  </si>
+  <si>
+    <t>HBM000032827</t>
+  </si>
+  <si>
+    <t>아동원서 843-S58g</t>
+  </si>
+  <si>
+    <t>(The)giving tree</t>
+  </si>
+  <si>
+    <t>by Shel Silverstein</t>
+  </si>
+  <si>
+    <t>HBM000032828</t>
+  </si>
+  <si>
+    <t>331.544-다68ㄷㄱ</t>
+  </si>
+  <si>
+    <t>대변동 : 위기, 선택, 변화 : 무엇을 선택하고 어떻게 변화할 것인가</t>
+  </si>
+  <si>
+    <t>재레드 다이아몬드 지음 ; 강주헌 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032829</t>
+  </si>
+  <si>
+    <t>340.1-이78ㅎ</t>
+  </si>
+  <si>
+    <t>한나 아렌트의 정치 강의</t>
+  </si>
+  <si>
+    <t>이진우 지음</t>
+  </si>
+  <si>
+    <t>휴머니스트</t>
+  </si>
+  <si>
+    <t>HBM000032830</t>
+  </si>
+  <si>
+    <t>539.9-이57ㄱ</t>
+  </si>
+  <si>
+    <t>기후변화와 환경의 미래 = Climate change and future of environment : 어떻게 대응하고 적을할 것인가</t>
+  </si>
+  <si>
+    <t>이승은, 고문현 공저</t>
+  </si>
+  <si>
+    <t>HBM000032831</t>
+  </si>
+  <si>
+    <t>802-이94ㅎ</t>
+  </si>
+  <si>
+    <t>하루 1시간, 책 쓰기의 힘</t>
+  </si>
+  <si>
+    <t>이혁백 지음</t>
+  </si>
+  <si>
+    <t>치읓</t>
+  </si>
+  <si>
+    <t>HBM000032832</t>
+  </si>
+  <si>
+    <t>327.87-박64ㄱ</t>
+  </si>
+  <si>
+    <t>결국, 아이디어는 발견이다 : Eureka! 6가지 창의발상코드</t>
+  </si>
+  <si>
+    <t>박영택 지음</t>
+  </si>
+  <si>
+    <t>한국주택금융공사</t>
+  </si>
+  <si>
+    <t>HBM000032833</t>
+  </si>
+  <si>
+    <t>840.9-해29ㄴㄱ</t>
+  </si>
+  <si>
+    <t>(예술가들이 사랑한)날씨</t>
+  </si>
+  <si>
+    <t>알렉산드라 해리스 지음 ; 강도은 옮김</t>
+  </si>
+  <si>
+    <t>펄북스</t>
+  </si>
+  <si>
+    <t>HBM000032834</t>
+  </si>
+  <si>
+    <t>337.2-그29ㅇㅇ</t>
+  </si>
+  <si>
+    <t>여자는 인질이다 : 왜 여자는 남자를 사랑하는가</t>
+  </si>
+  <si>
+    <t>디 그레이엄, 에드나 롤링스, 로버타 릭스비 [공]지음 ; 유혜담 옮김</t>
+  </si>
+  <si>
+    <t>열다북스</t>
+  </si>
+  <si>
+    <t>HBM000032835</t>
+  </si>
+  <si>
+    <t>517.548-강92ㅇ</t>
+  </si>
+  <si>
+    <t>요리를 멈추다 : 어느 채식부부의 고백</t>
+  </si>
+  <si>
+    <t>강하라, 심채윤 [공]지음</t>
+  </si>
+  <si>
+    <t>사이몬북스</t>
+  </si>
+  <si>
+    <t>HBM000032836</t>
+  </si>
+  <si>
+    <t>165.84-아29ㅈㅎ</t>
+  </si>
+  <si>
+    <t>정신의 삶 : 사유와 의지</t>
+  </si>
+  <si>
+    <t>한나 아렌트 지음 ; 홍원표 옮김</t>
+  </si>
+  <si>
+    <t>푸른숲</t>
+  </si>
+  <si>
+    <t>HBM000032837</t>
+  </si>
+  <si>
+    <t>833.6-히12ㅅㄱ</t>
+  </si>
+  <si>
+    <t>살인 현장은 구름 위</t>
+  </si>
+  <si>
+    <t>HBM000032838</t>
+  </si>
+  <si>
+    <t>388.1-김56ㅅ</t>
+  </si>
+  <si>
+    <t>(이세계 디자이너를 위한)신박한 요괴 자료집</t>
+  </si>
+  <si>
+    <t>김수용 글·그림</t>
+  </si>
+  <si>
+    <t>들녘</t>
+  </si>
+  <si>
+    <t>HBM000032839</t>
+  </si>
+  <si>
+    <t>327.87-황88ㅂ</t>
+  </si>
+  <si>
+    <t>100세 시대 부동산 은퇴설계</t>
+  </si>
+  <si>
+    <t>황태연 지음</t>
+  </si>
+  <si>
+    <t>자유문고</t>
+  </si>
+  <si>
+    <t>HBM000032841</t>
+  </si>
+  <si>
+    <t>677.43-윤94ㅌ</t>
+  </si>
+  <si>
+    <t>통기타 코드 14</t>
+  </si>
+  <si>
+    <t>윤현민 지음</t>
+  </si>
+  <si>
+    <t>디테일북스</t>
+  </si>
+  <si>
+    <t>HBM000032842</t>
+  </si>
+  <si>
+    <t>379.138-박74ㅅ</t>
+  </si>
+  <si>
+    <t>(쉽게 배우는)수화 = Easily learn sign language</t>
+  </si>
+  <si>
+    <t>박정란, 이진숙 공저</t>
+  </si>
+  <si>
+    <t>HBM000032843</t>
+  </si>
+  <si>
+    <t>638.309-니58ㅁㅂ</t>
+  </si>
+  <si>
+    <t>명작 의자 유래 사전</t>
+  </si>
+  <si>
+    <t>니시카와 타카아키 지음 ; 사카구치 와카코 일러스트 ; 박유미 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032844</t>
+  </si>
+  <si>
+    <t>813.6081-조74ㅊ-2</t>
+  </si>
+  <si>
+    <t>천년의 질문 : 조정래 장편소설. 2</t>
+  </si>
+  <si>
+    <t>HBM000032845</t>
+  </si>
+  <si>
+    <t>813.6081-조74ㅊ-3</t>
+  </si>
+  <si>
+    <t>천년의 질문 : 조정래 장편소설. 3</t>
+  </si>
+  <si>
+    <t>HBM000032846</t>
+  </si>
+  <si>
+    <t>유아 833.8-트29ㅇ-1</t>
+  </si>
+  <si>
+    <t>엉덩이 탐정. [1], 뿡뿡 사라진 과자를 찾아라!</t>
+  </si>
+  <si>
+    <t>트롤 글·그림 ; 전경아 옮김</t>
+  </si>
+  <si>
+    <t>문학수첩리틀북</t>
+  </si>
+  <si>
+    <t>HBM000032847</t>
+  </si>
+  <si>
+    <t>유아 833.8-트29ㅇ-2</t>
+  </si>
+  <si>
+    <t>엉덩이 탐정. [2], 뿡뿡 무지개 다이아몬드를 찾아라!</t>
+  </si>
+  <si>
+    <t>HBM000032848</t>
+  </si>
+  <si>
+    <t>유아 833.8-트29ㅇ-3</t>
+  </si>
+  <si>
+    <t>엉덩이 탐정. [3], 뿡뿡 쪼그만 서장의 대위기!?</t>
+  </si>
+  <si>
+    <t>HBM000032849</t>
+  </si>
+  <si>
+    <t>848-티57ㅇㅂ</t>
+  </si>
+  <si>
+    <t>인생의 마지막 순간에서 : 죽음과 죽어감에 관한 실질적 조언</t>
+  </si>
+  <si>
+    <t>샐리 티스데일 지음 ; 박미경 옮김</t>
+  </si>
+  <si>
+    <t>비잉</t>
+  </si>
+  <si>
+    <t>HBM000032850</t>
+  </si>
+  <si>
+    <t>유아 863-도29ㅇㅇ</t>
+  </si>
+  <si>
+    <t>어떤 약속</t>
+  </si>
+  <si>
+    <t>마리 도를레앙 글·그림 ; 이경혜 옮김</t>
+  </si>
+  <si>
+    <t>재능교육</t>
+  </si>
+  <si>
+    <t>HBM000032851</t>
+  </si>
+  <si>
+    <t>유아 808.9-네44ㅅ-261</t>
+  </si>
+  <si>
+    <t>알렉산더와 장난감 쥐</t>
+  </si>
+  <si>
+    <t>레오 리오니 글·그림 ; 김난령 옮김</t>
+  </si>
+  <si>
+    <t>시공주니어</t>
   </si>
 </sst>
 </file>
@@ -3431,7 +4098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3516,14 +4183,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3839,6 +4509,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3857,15 +4530,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -4616,7 +5289,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4624,7 +5297,7 @@
     <col min="1" max="1" width="4.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="89.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.125" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
@@ -4632,16 +5305,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>962</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -4732,7 +5405,7 @@
       <c r="D5" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="24" t="s">
         <v>975</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -5070,7 +5743,7 @@
       <c r="D18" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="24" t="s">
         <v>1028</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -5198,6 +5871,1383 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H20" s="11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5214,6 +7264,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5232,15 +7285,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -5827,6 +7880,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5846,16 +7902,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -6569,6 +8625,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6587,15 +8646,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -7090,6 +9149,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7108,16 +9170,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
@@ -7571,9 +9633,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -7589,15 +9654,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -7670,22 +9735,22 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <v>2018</v>
       </c>
     </row>
@@ -8138,6 +10203,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8157,16 +10225,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -8828,10 +10896,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8847,16 +10918,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>765</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -8973,7 +11044,7 @@
       <c r="D6" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="31" t="s">
         <v>781</v>
       </c>
       <c r="F6" s="23" t="s">
@@ -9129,7 +11200,7 @@
       <c r="D12" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="31" t="s">
         <v>807</v>
       </c>
       <c r="F12" s="23" t="s">
@@ -9155,7 +11226,7 @@
       <c r="D13" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="31" t="s">
         <v>811</v>
       </c>
       <c r="F13" s="23" t="s">
@@ -9443,7 +11514,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9451,7 +11522,7 @@
     <col min="1" max="1" width="5" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="6" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="54.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -9459,16 +11530,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -9533,7 +11604,7 @@
       <c r="D4" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="24" t="s">
         <v>871</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -9559,7 +11630,7 @@
       <c r="D5" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="24" t="s">
         <v>876</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -9637,7 +11708,7 @@
       <c r="D8" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="24" t="s">
         <v>890</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -9793,7 +11864,7 @@
       <c r="D14" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="24" t="s">
         <v>919</v>
       </c>
       <c r="F14" s="20" t="s">
@@ -9897,7 +11968,7 @@
       <c r="D18" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="24" t="s">
         <v>935</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -9949,7 +12020,7 @@
       <c r="D20" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="24" t="s">
         <v>944</v>
       </c>
       <c r="F20" s="20" t="s">

--- a/반월도서관희망도서목록2019.xlsx
+++ b/반월도서관희망도서목록2019.xlsx
@@ -3974,7 +3974,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4020,6 +4020,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4098,7 +4104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4189,10 +4195,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4530,15 +4539,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -5289,7 +5298,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5305,16 +5314,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>962</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -5743,7 +5752,7 @@
       <c r="D18" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="32" t="s">
         <v>1028</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -5875,7 +5884,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5890,16 +5899,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>1066</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -6434,30 +6443,32 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="97.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>1156</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -7285,15 +7296,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -7902,16 +7913,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -8646,15 +8657,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -9170,16 +9181,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
@@ -9654,15 +9665,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -10209,7 +10220,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10225,16 +10236,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -10611,7 +10622,7 @@
       <c r="D16" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="32" t="s">
         <v>1056</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -10902,7 +10913,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10918,16 +10929,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -11044,7 +11055,7 @@
       <c r="D6" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>781</v>
       </c>
       <c r="F6" s="23" t="s">
@@ -11200,7 +11211,7 @@
       <c r="D12" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>807</v>
       </c>
       <c r="F12" s="23" t="s">
@@ -11226,7 +11237,7 @@
       <c r="D13" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>811</v>
       </c>
       <c r="F13" s="23" t="s">
@@ -11514,7 +11525,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11530,16 +11541,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>

--- a/반월도서관희망도서목록2019.xlsx
+++ b/반월도서관희망도서목록2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="JAN1" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="MAY2" sheetId="12" r:id="rId10"/>
     <sheet name="JUN1" sheetId="13" r:id="rId11"/>
     <sheet name="JUN2" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId13"/>
+    <sheet name="JUL1" sheetId="15" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1430">
   <si>
     <t>반월도서관 1월 1차 희망도서 입수목록(31권)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3933,6 +3934,436 @@
   </si>
   <si>
     <t>시공주니어</t>
+  </si>
+  <si>
+    <t>반월도서관 희망도서 입수목록 (연간13차)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000032852</t>
+  </si>
+  <si>
+    <t>379.138-문94ㅇ</t>
+  </si>
+  <si>
+    <t>우선순위 농식수화 : 쉽게 공부하는 고급수화</t>
+  </si>
+  <si>
+    <t>문혁 저</t>
+  </si>
+  <si>
+    <t>더드림 수화연구소</t>
+  </si>
+  <si>
+    <t>HBM000032853</t>
+  </si>
+  <si>
+    <t>657.1-마85ㄱㄱ</t>
+  </si>
+  <si>
+    <t>(일러스트와 만화를 위한)구도 노하우</t>
+  </si>
+  <si>
+    <t>마츠오카 신지 저자, 김재훈 번역</t>
+  </si>
+  <si>
+    <t>영진닷컴</t>
+  </si>
+  <si>
+    <t>HBM000032854</t>
+  </si>
+  <si>
+    <t>843-몽15ㅂㅂ</t>
+  </si>
+  <si>
+    <t>빨강 머리 앤</t>
+  </si>
+  <si>
+    <t>루시 모드 몽고메리 지음 ; 박혜원 옮김</t>
+  </si>
+  <si>
+    <t>더모던</t>
+  </si>
+  <si>
+    <t>HBM000032855</t>
+  </si>
+  <si>
+    <t>165.82-데29ㅎㅅ</t>
+  </si>
+  <si>
+    <t>후설 철학에서 발생의 문제</t>
+  </si>
+  <si>
+    <t>자크 데리다 지음 ; 심재원, 신호재 [공]옮김</t>
+  </si>
+  <si>
+    <t>HBM000032856</t>
+  </si>
+  <si>
+    <t>334.226-루48ㅇㅅ</t>
+  </si>
+  <si>
+    <t>일탈 : 게일 루빈 선집</t>
+  </si>
+  <si>
+    <t>게일 루빈 지음 ; 신혜수 [외]옮김</t>
+  </si>
+  <si>
+    <t>현실문화연구</t>
+  </si>
+  <si>
+    <t>HBM000032857</t>
+  </si>
+  <si>
+    <t>982.02-유58ㅇ-1</t>
+  </si>
+  <si>
+    <t>유럽 도시 기행 = Athenae Roma Istanbul Paris. 1, 아테네, 로마, 이스탄불, 파리 편</t>
+  </si>
+  <si>
+    <t>유시민 지음</t>
+  </si>
+  <si>
+    <t>생각의길</t>
+  </si>
+  <si>
+    <t>HBM000032858</t>
+  </si>
+  <si>
+    <t>670.13-오57ㄴ</t>
+  </si>
+  <si>
+    <t>나 홀로 음반 내기 : #셀프 음반 #셀프 기획사</t>
+  </si>
+  <si>
+    <t>오승환 지음</t>
+  </si>
+  <si>
+    <t>HBM000032859</t>
+  </si>
+  <si>
+    <t>745-김62ㅁ-1</t>
+  </si>
+  <si>
+    <t>미국 영어 회화 문법 = Grammar context. 1, 명사 관련 활용</t>
+  </si>
+  <si>
+    <t>김아영 지음</t>
+  </si>
+  <si>
+    <t>사람in</t>
+  </si>
+  <si>
+    <t>HBM000032860</t>
+  </si>
+  <si>
+    <t>745-김62ㅁ-2</t>
+  </si>
+  <si>
+    <t>미국 영어 회화 문법 = Grammar context. 2, 동사와 시제</t>
+  </si>
+  <si>
+    <t>HBM000032861</t>
+  </si>
+  <si>
+    <t>325.5-셰29ㄷㅊ</t>
+  </si>
+  <si>
+    <t>대답만 했을 뿐인데 회사가 살아났습니다</t>
+  </si>
+  <si>
+    <t>마커스 셰리든 지음 ; 최경은 옮김</t>
+  </si>
+  <si>
+    <t>e비즈북스</t>
+  </si>
+  <si>
+    <t>HBM000032862</t>
+  </si>
+  <si>
+    <t>327.87-한52ㅂ</t>
+  </si>
+  <si>
+    <t>부동산 위기인가, 기회인가 : 부동산 디플레이션에 대비하라</t>
+  </si>
+  <si>
+    <t>한상완 지음</t>
+  </si>
+  <si>
+    <t>인사이트앤뷰</t>
+  </si>
+  <si>
+    <t>HBM000032863</t>
+  </si>
+  <si>
+    <t>327.856-불15ㅂ</t>
+  </si>
+  <si>
+    <t>불곰의 왕초보 주식투자</t>
+  </si>
+  <si>
+    <t>불곰, 박선목, 박종관 [공]지음</t>
+  </si>
+  <si>
+    <t>HBM000032864</t>
+  </si>
+  <si>
+    <t>327.856-김68ㅈ</t>
+  </si>
+  <si>
+    <t>주식투자 이렇게 쉬웠어?</t>
+  </si>
+  <si>
+    <t>김이슬 지음</t>
+  </si>
+  <si>
+    <t>위닝북스</t>
+  </si>
+  <si>
+    <t>HBM000032865</t>
+  </si>
+  <si>
+    <t>911.058-김76ㅎ</t>
+  </si>
+  <si>
+    <t>화성, 정조와 다산의 꿈이 어우러진 대동의 도시</t>
+  </si>
+  <si>
+    <t>김준혁 지음</t>
+  </si>
+  <si>
+    <t>더봄</t>
+  </si>
+  <si>
+    <t>HBM000032866</t>
+  </si>
+  <si>
+    <t>695.4099-손97ㅊ-1</t>
+  </si>
+  <si>
+    <t>축구를 하며 생각한 것들 : 손흥민 첫 에세이. Vol. 1</t>
+  </si>
+  <si>
+    <t>손흥민 지음</t>
+  </si>
+  <si>
+    <t>브레인스토어</t>
+  </si>
+  <si>
+    <t>HBM000032867</t>
+  </si>
+  <si>
+    <t>818-김93ㄴ</t>
+  </si>
+  <si>
+    <t>너는 사랑을 잘못 배웠다</t>
+  </si>
+  <si>
+    <t>김해찬 지음</t>
+  </si>
+  <si>
+    <t>시드앤피드</t>
+  </si>
+  <si>
+    <t>HBM000032868</t>
+  </si>
+  <si>
+    <t>814.7-이17ㄱ</t>
+  </si>
+  <si>
+    <t>고독할 권리 : 이근화 산문집</t>
+  </si>
+  <si>
+    <t>이근화 지음</t>
+  </si>
+  <si>
+    <t>HBM000032869</t>
+  </si>
+  <si>
+    <t>유아 813.8-윤78ㅇ</t>
+  </si>
+  <si>
+    <t>엄마 아빠 결혼 이야기 : 윤지회 그림책</t>
+  </si>
+  <si>
+    <t>윤지회 글·그림</t>
+  </si>
+  <si>
+    <t>사계절</t>
+  </si>
+  <si>
+    <t>HBM000032870</t>
+  </si>
+  <si>
+    <t>유아 388.111-홍64ㅂ</t>
+  </si>
+  <si>
+    <t>바보 온달</t>
+  </si>
+  <si>
+    <t>홍영우 글·그림</t>
+  </si>
+  <si>
+    <t>보리</t>
+  </si>
+  <si>
+    <t>HBM000032871</t>
+  </si>
+  <si>
+    <t>유아 388.111-이52ㅇ</t>
+  </si>
+  <si>
+    <t>운명을 바꾼, 가믄장아기</t>
+  </si>
+  <si>
+    <t>이상교 글 ; 이은주 그림</t>
+  </si>
+  <si>
+    <t>HBM000032872</t>
+  </si>
+  <si>
+    <t>아동 453-조78ㄱ</t>
+  </si>
+  <si>
+    <t>(그림으로 보는)기후 말뜻 사전</t>
+  </si>
+  <si>
+    <t>조지욱 글 ; 이선주 그림</t>
+  </si>
+  <si>
+    <t>HBM000032873</t>
+  </si>
+  <si>
+    <t>아동 911-강38ㅂ=2</t>
+  </si>
+  <si>
+    <t>(반구대 암각화)바위에 새긴 고래 이야기</t>
+  </si>
+  <si>
+    <t>강미희 글 ; 윤봉선 그림</t>
+  </si>
+  <si>
+    <t>마루벌</t>
+  </si>
+  <si>
+    <t>HBM000032874</t>
+  </si>
+  <si>
+    <t>813.7081-정54ㄴ-1</t>
+  </si>
+  <si>
+    <t>낙원의 이론 : 정선우 장편소설. 1</t>
+  </si>
+  <si>
+    <t>정선우 지음</t>
+  </si>
+  <si>
+    <t>파란미디어</t>
+  </si>
+  <si>
+    <t>HBM000032875</t>
+  </si>
+  <si>
+    <t>813.7081-정54ㄴ-2</t>
+  </si>
+  <si>
+    <t>낙원의 이론 : 정선우 장편소설. 2</t>
+  </si>
+  <si>
+    <t>HBM000032876</t>
+  </si>
+  <si>
+    <t>813.7081-정54ㄴ-3</t>
+  </si>
+  <si>
+    <t>낙원의 이론 : 정선우 장편소설. 3</t>
+  </si>
+  <si>
+    <t>HBM000032877</t>
+  </si>
+  <si>
+    <t>813.7081-정54ㄴ-4</t>
+  </si>
+  <si>
+    <t>낙원의 이론 : 정선우 장편소설. 4</t>
+  </si>
+  <si>
+    <t>HBM000032878</t>
+  </si>
+  <si>
+    <t>592.3-마29ㅍㅎ-1</t>
+  </si>
+  <si>
+    <t>패턴 학교. Vol.1, 상의 편</t>
+  </si>
+  <si>
+    <t>마루야마 하루미 감수, 황선영 옮김</t>
+  </si>
+  <si>
+    <t>이아소</t>
+  </si>
+  <si>
+    <t>HBM000032879</t>
+  </si>
+  <si>
+    <t>592.3-마29ㅍㅎ-2</t>
+  </si>
+  <si>
+    <t>패턴 학교. Vol.2, 스커트 편</t>
+  </si>
+  <si>
+    <t>HBM000032880</t>
+  </si>
+  <si>
+    <t>592.3-마29ㅍㅎ-3</t>
+  </si>
+  <si>
+    <t>패턴 학교. Vol.3, 팬츠 편</t>
+  </si>
+  <si>
+    <t>HBM000032881</t>
+  </si>
+  <si>
+    <t>833.6-쓰29ㅌㅎ-1</t>
+  </si>
+  <si>
+    <t>툇마루에서 모든 게 달라졌다. 1</t>
+  </si>
+  <si>
+    <t>쓰루타니 가오리 지음 ; 현승희 옮김</t>
+  </si>
+  <si>
+    <t>북폴리오</t>
+  </si>
+  <si>
+    <t>HBM000032882</t>
+  </si>
+  <si>
+    <t>유아원서 843-A432p</t>
+  </si>
+  <si>
+    <t>Poor little guy</t>
+  </si>
+  <si>
+    <t>Elanna Allen</t>
+  </si>
+  <si>
+    <t>Dial Books for Young Readers</t>
+  </si>
+  <si>
+    <t>HBM000032883</t>
+  </si>
+  <si>
+    <t>유아 813.8-민88ㅂ</t>
+  </si>
+  <si>
+    <t>별을 삼킨 괴물</t>
+  </si>
+  <si>
+    <t>민트래빗 플래닝 글·그림</t>
+  </si>
+  <si>
+    <t>민트래빗</t>
   </si>
 </sst>
 </file>
@@ -3974,7 +4405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4026,6 +4457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4104,7 +4541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4198,10 +4635,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4539,15 +4979,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -5295,10 +5735,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5306,7 +5749,7 @@
     <col min="1" max="1" width="4.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="89.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.125" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
@@ -5314,16 +5757,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>962</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -5700,7 +6143,7 @@
       <c r="D16" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="24" t="s">
         <v>1019</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -5752,7 +6195,7 @@
       <c r="D18" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="33" t="s">
         <v>1028</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -5830,7 +6273,7 @@
       <c r="D21" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="24" t="s">
         <v>1041</v>
       </c>
       <c r="F21" s="20" t="s">
@@ -5881,10 +6324,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5899,16 +6345,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1066</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -6051,7 +6497,7 @@
       <c r="D7" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>1088</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -6129,7 +6575,7 @@
       <c r="D10" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="18" t="s">
         <v>1102</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -6155,7 +6601,7 @@
       <c r="D11" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="18" t="s">
         <v>1107</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -6337,7 +6783,7 @@
       <c r="D18" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="18" t="s">
         <v>1138</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -6440,6 +6886,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6451,7 +6900,7 @@
     <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="97.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
@@ -6459,16 +6908,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1156</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -6507,7 +6956,7 @@
       <c r="D3" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="16" t="s">
         <v>1159</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -6663,7 +7112,7 @@
       <c r="D9" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="16" t="s">
         <v>1188</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -6715,7 +7164,7 @@
       <c r="D11" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="16" t="s">
         <v>1197</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -6741,7 +7190,7 @@
       <c r="D12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="16" t="s">
         <v>1201</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -6767,7 +7216,7 @@
       <c r="D13" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="16" t="s">
         <v>1206</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -7183,7 +7632,7 @@
       <c r="D29" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="16" t="s">
         <v>1274</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -7259,6 +7708,907 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H8" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H11" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H13" s="21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H15" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H17" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H18" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H20" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H21" s="21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H22" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>21</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H23" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H24" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H25" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>24</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H26" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
+        <v>25</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H27" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="20">
+        <v>26</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H28" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
+        <v>27</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H29" s="21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>28</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H30" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
+        <v>29</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H31" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
+        <v>30</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H32" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
+        <v>31</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H33" s="21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="20">
+        <v>32</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H34" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7296,15 +8646,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -7913,16 +9263,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -8657,15 +10007,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -9181,16 +10531,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
@@ -9665,15 +11015,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -10236,16 +11586,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -10622,7 +11972,7 @@
       <c r="D16" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>1056</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -10929,16 +12279,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>765</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -11522,10 +12872,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11541,16 +12894,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -11745,7 +13098,7 @@
       <c r="D9" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="24" t="s">
         <v>895</v>
       </c>
       <c r="F9" s="20" t="s">

--- a/반월도서관희망도서목록2019.xlsx
+++ b/반월도서관희망도서목록2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="JAN1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="JUN1" sheetId="13" r:id="rId11"/>
     <sheet name="JUN2" sheetId="14" r:id="rId12"/>
     <sheet name="JUL1" sheetId="15" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId14"/>
+    <sheet name="JUL2" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="1634">
   <si>
     <t>반월도서관 1월 1차 희망도서 입수목록(31권)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4364,6 +4365,619 @@
   </si>
   <si>
     <t>민트래빗</t>
+  </si>
+  <si>
+    <t>반월도서관 7월 2차 희망도서 입수목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000032884</t>
+  </si>
+  <si>
+    <t>922-에27ㄹㅇ2-1</t>
+  </si>
+  <si>
+    <t>로마 제국 쇠망사 : 축약보급판. 1</t>
+  </si>
+  <si>
+    <t>에드워드 기번 저 ; 이종인 편역</t>
+  </si>
+  <si>
+    <t>책과함께</t>
+  </si>
+  <si>
+    <t>HBM000032885</t>
+  </si>
+  <si>
+    <t>922-에27ㄹㅇ2-2</t>
+  </si>
+  <si>
+    <t>로마 제국 쇠망사 : 축약보급판. 2</t>
+  </si>
+  <si>
+    <t>HBM000032886</t>
+  </si>
+  <si>
+    <t>922-에27ㄹㅇ2-3</t>
+  </si>
+  <si>
+    <t>로마 제국 쇠망사 : 축약보급판. 3</t>
+  </si>
+  <si>
+    <t>HBM000032887</t>
+  </si>
+  <si>
+    <t>922-에27ㄹㅇ2-4</t>
+  </si>
+  <si>
+    <t>로마 제국 쇠망사 : 축약보급판. 4</t>
+  </si>
+  <si>
+    <t>HBM000032888</t>
+  </si>
+  <si>
+    <t>813.7-김56ㅎ</t>
+  </si>
+  <si>
+    <t>희란국 연가 : 김수지 장편소설</t>
+  </si>
+  <si>
+    <t>김수지 지음</t>
+  </si>
+  <si>
+    <t>필</t>
+  </si>
+  <si>
+    <t>HBM000032889</t>
+  </si>
+  <si>
+    <t>843-알29ㅈㄱ</t>
+  </si>
+  <si>
+    <t>죽음을 보는 재능</t>
+  </si>
+  <si>
+    <t>M. J. 알리지 지음 ; 김효정 옮김</t>
+  </si>
+  <si>
+    <t>Book Plaza</t>
+  </si>
+  <si>
+    <t>HBM000032890</t>
+  </si>
+  <si>
+    <t>594.675-맛46ㅁ</t>
+  </si>
+  <si>
+    <t>맛불리 다이어트 연구소 : 팔팔 투 더 오오 = 88 to the 55</t>
+  </si>
+  <si>
+    <t>맛불리 지음</t>
+  </si>
+  <si>
+    <t>부키</t>
+  </si>
+  <si>
+    <t>HBM000032891</t>
+  </si>
+  <si>
+    <t>598.1-최54ㅈ</t>
+  </si>
+  <si>
+    <t>정서적 흙수저와 정서적 금수저</t>
+  </si>
+  <si>
+    <t>최성애, 조벽 [공]지음</t>
+  </si>
+  <si>
+    <t>HBM000032892</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-25</t>
+  </si>
+  <si>
+    <t>아라비안나이트</t>
+  </si>
+  <si>
+    <t>미오 치즈루 편역 ; 이이다 카나메 그림 ; 양수현 옮김</t>
+  </si>
+  <si>
+    <t>은하수미디어</t>
+  </si>
+  <si>
+    <t>HBM000032893</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-24</t>
+  </si>
+  <si>
+    <t>몬테크리스토 백작</t>
+  </si>
+  <si>
+    <t>알렉상드르 뒤마 원작 ; 오카다 요시에 편역 ; 양수현 번역</t>
+  </si>
+  <si>
+    <t>HBM000032894</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-23</t>
+  </si>
+  <si>
+    <t>피터 팬</t>
+  </si>
+  <si>
+    <t>제임스 매슈 배리 원작 ; 양태석 글 ; 한송이 그림</t>
+  </si>
+  <si>
+    <t>HBM000032895</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-22</t>
+  </si>
+  <si>
+    <t>소공자</t>
+  </si>
+  <si>
+    <t>프랜시스 호지슨 버넷 원작 ; 양태석 글 ; 조성경 그림</t>
+  </si>
+  <si>
+    <t>HBM000032896</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-21</t>
+  </si>
+  <si>
+    <t>안네의 일기</t>
+  </si>
+  <si>
+    <t>안네 프랑크 원작 ; 양태석 글 ; 김혜영 그림</t>
+  </si>
+  <si>
+    <t>HBM000032897</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-20</t>
+  </si>
+  <si>
+    <t>해저 2만 리</t>
+  </si>
+  <si>
+    <t>쥘 베른 원작 ; 아시베 다쿠 편역 ; 후지시로 요우 그림 ; 양수현 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032898</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-18</t>
+  </si>
+  <si>
+    <t>괴도 아르센 뤼팽</t>
+  </si>
+  <si>
+    <t>모리스 르블랑 원작 ; 아시베 다쿠 편역 ; 키요세 노도카 그림 ; 양수현 번역</t>
+  </si>
+  <si>
+    <t>HBM000032899</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-16</t>
+  </si>
+  <si>
+    <t>어린 왕자</t>
+  </si>
+  <si>
+    <t>앙투안 드 생텍쥐페리 원작 ; 양태석 글 ; 김혜연 그림</t>
+  </si>
+  <si>
+    <t>HBM000032900</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-15</t>
+  </si>
+  <si>
+    <t>왕자와 거지</t>
+  </si>
+  <si>
+    <t>마크 트웨인 원작 ; 무라오카 하나코 편역 ; 무라오카 미에 편저 ; 다하라 히토에 그림 ; 양수현 번역</t>
+  </si>
+  <si>
+    <t>HBM000032901</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-09</t>
+  </si>
+  <si>
+    <t>걸리버 여행기</t>
+  </si>
+  <si>
+    <t>조너선 스위프트 원작 ; 시바타 가츠모 편역 ; 오오츠카 요이치로 그림 ; 양수현 번역</t>
+  </si>
+  <si>
+    <t>HBM000032902</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-04</t>
+  </si>
+  <si>
+    <t>오즈의 마법사</t>
+  </si>
+  <si>
+    <t>라이먼 프랭크 바움 원작 ; 다치하라 에리카 편역 ; 고향옥 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032903</t>
+  </si>
+  <si>
+    <t>아동 808.9-초27ㅇ-5</t>
+  </si>
+  <si>
+    <t>알프스 소녀 하이디</t>
+  </si>
+  <si>
+    <t>유한나 슈피리 원작 ; 마쓰나가 미호 편역 ; 유즈키 기히로 그림 ; 남궁가윤 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032904</t>
+  </si>
+  <si>
+    <t>431.14-잭57ㅈㅈ</t>
+  </si>
+  <si>
+    <t>주기율표 : 인포그래픽으로 만나는 원소의 세계</t>
+  </si>
+  <si>
+    <t>톰 잭슨 지음 ; 장정문 옮김</t>
+  </si>
+  <si>
+    <t>소우주</t>
+  </si>
+  <si>
+    <t>HBM000032905</t>
+  </si>
+  <si>
+    <t>823.5-나15ㅅ-1</t>
+  </si>
+  <si>
+    <t>(설민석의)삼국지. 1</t>
+  </si>
+  <si>
+    <t>설민석 지음</t>
+  </si>
+  <si>
+    <t>세계사</t>
+  </si>
+  <si>
+    <t>HBM000032907</t>
+  </si>
+  <si>
+    <t>005.567-비48ㅍ</t>
+  </si>
+  <si>
+    <t>파워디렉터로 UCC 활용과 작품만들기</t>
+  </si>
+  <si>
+    <t>비비드북 교재개발실 지음</t>
+  </si>
+  <si>
+    <t>비비드북</t>
+  </si>
+  <si>
+    <t>HBM000032908</t>
+  </si>
+  <si>
+    <t>325.21-주92ㅇ</t>
+  </si>
+  <si>
+    <t>인생은 마카롱처럼 : 세상 어디에도 없는 잇다롱 이야기</t>
+  </si>
+  <si>
+    <t>주한주 지음</t>
+  </si>
+  <si>
+    <t>현암사</t>
+  </si>
+  <si>
+    <t>HBM000032909</t>
+  </si>
+  <si>
+    <t>350.704-나52ㄴ</t>
+  </si>
+  <si>
+    <t>나는 대한민국 경찰공무원이다</t>
+  </si>
+  <si>
+    <t>나상미 지음</t>
+  </si>
+  <si>
+    <t>함께북스</t>
+  </si>
+  <si>
+    <t>HBM000032910</t>
+  </si>
+  <si>
+    <t>540.16027-신34ㅅ</t>
+  </si>
+  <si>
+    <t>스케치업 2019 완전정복 : 실전 예제로 배우는 건축·인테리어</t>
+  </si>
+  <si>
+    <t>신명철 저</t>
+  </si>
+  <si>
+    <t>대가</t>
+  </si>
+  <si>
+    <t>HBM000032911</t>
+  </si>
+  <si>
+    <t>아동 559-홍24ㄹ</t>
+  </si>
+  <si>
+    <t>로봇 일레븐</t>
+  </si>
+  <si>
+    <t>데니스 홍, 홍이산 [공]글 ; 정용환 그림</t>
+  </si>
+  <si>
+    <t>HBM000032912</t>
+  </si>
+  <si>
+    <t>340.911-오68ㅌ</t>
+  </si>
+  <si>
+    <t>통일의 날이 참다운 광복의 날이다 : 밖에서 본 한반도</t>
+  </si>
+  <si>
+    <t>오인동 지음</t>
+  </si>
+  <si>
+    <t>솔문</t>
+  </si>
+  <si>
+    <t>HBM000032913</t>
+  </si>
+  <si>
+    <t>327.8-다67ㅇ</t>
+  </si>
+  <si>
+    <t>1일 1짠 돈 습관</t>
+  </si>
+  <si>
+    <t>다음 짠돌이 카페 슈퍼짠 12인 지음</t>
+  </si>
+  <si>
+    <t>HBM000032914</t>
+  </si>
+  <si>
+    <t>029.4-전62ㄱ</t>
+  </si>
+  <si>
+    <t>기적을 만드는 엄마의 책 공부</t>
+  </si>
+  <si>
+    <t>전안나 지음</t>
+  </si>
+  <si>
+    <t>가나</t>
+  </si>
+  <si>
+    <t>HBM000032915</t>
+  </si>
+  <si>
+    <t>005.1-맥25ㅋㅇ2</t>
+  </si>
+  <si>
+    <t>코딩 인터뷰 완전 분석 : 189가지 프로그래밍 문제와 해법</t>
+  </si>
+  <si>
+    <t>게일 라크만 맥도웰 지음 ; 이창현 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032916</t>
+  </si>
+  <si>
+    <t>325.211-콘29ㅇㅂ</t>
+  </si>
+  <si>
+    <t>일터의 현자</t>
+  </si>
+  <si>
+    <t>칩 콘리 지음 ; 박선령 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032917</t>
+  </si>
+  <si>
+    <t>189-문78ㅈ</t>
+  </si>
+  <si>
+    <t>(정신과 의사에게 배우는)자존감 대화법</t>
+  </si>
+  <si>
+    <t>문지현 지음</t>
+  </si>
+  <si>
+    <t>사람과나무사이</t>
+  </si>
+  <si>
+    <t>HBM000032918</t>
+  </si>
+  <si>
+    <t>331.54-홍54ㅅ</t>
+  </si>
+  <si>
+    <t>수축사회 : 성장 신화를 버려야 미래가 보인다</t>
+  </si>
+  <si>
+    <t>홍성국 지음</t>
+  </si>
+  <si>
+    <t>메디치미디어</t>
+  </si>
+  <si>
+    <t>HBM000032919</t>
+  </si>
+  <si>
+    <t>609-문92ㄷ</t>
+  </si>
+  <si>
+    <t>다락방 미술관 : 그림 속 숨어있는 이야기</t>
+  </si>
+  <si>
+    <t>문하연 지음</t>
+  </si>
+  <si>
+    <t>평단</t>
+  </si>
+  <si>
+    <t>HBM000032920</t>
+  </si>
+  <si>
+    <t>598.1-이22ㅇ</t>
+  </si>
+  <si>
+    <t>아이 마음에 상처 주지 않는 습관</t>
+  </si>
+  <si>
+    <t>이다랑 지음</t>
+  </si>
+  <si>
+    <t>HBM000032921</t>
+  </si>
+  <si>
+    <t>598.1-임64ㅊ</t>
+  </si>
+  <si>
+    <t>책 읽어주기의 기적</t>
+  </si>
+  <si>
+    <t>임영주 지음</t>
+  </si>
+  <si>
+    <t>노란우산</t>
+  </si>
+  <si>
+    <t>HBM000032922</t>
+  </si>
+  <si>
+    <t>340.913-우86ㅅㅈ</t>
+  </si>
+  <si>
+    <t>사쿠라 진다 : 전후 70년, 현대 일본을 말하다</t>
+  </si>
+  <si>
+    <t>우치다 다쓰루, 시라이 사토시 [공]지음 ; 정선태 옮김</t>
+  </si>
+  <si>
+    <t>우주소년</t>
+  </si>
+  <si>
+    <t>HBM000032923</t>
+  </si>
+  <si>
+    <t>187-우86ㅅㄱ</t>
+  </si>
+  <si>
+    <t>(대세를 따르지 않는)시민들의 생각법</t>
+  </si>
+  <si>
+    <t>우치다 타츠루 지음 ; 김경원 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032924</t>
+  </si>
+  <si>
+    <t>833.6-히12ㄱㄱ</t>
+  </si>
+  <si>
+    <t>기도의 막이 내릴 때</t>
+  </si>
+  <si>
+    <t>히가시노 게이고 지음 ; 김남주 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032925</t>
+  </si>
+  <si>
+    <t>598.1-주46ㅇㄱ</t>
+  </si>
+  <si>
+    <t>오늘부터 훈육을 그만둡니다</t>
+  </si>
+  <si>
+    <t>주부의 벗 엮음 ; 아라이 피로요 만화 ; 김지윤 옮김</t>
+  </si>
+  <si>
+    <t>진선books</t>
+  </si>
+  <si>
+    <t>HBM000032926</t>
+  </si>
+  <si>
+    <t>326.734-하29ㄱㅇ</t>
+  </si>
+  <si>
+    <t>공영방송의 모델, BBC를 읽다</t>
+  </si>
+  <si>
+    <t>하라 마리코, 시바야마 데쓰야 [공]엮음 ; 안창현 옮김</t>
+  </si>
+  <si>
+    <t>한울아카데미</t>
+  </si>
+  <si>
+    <t>HBM000032927</t>
+  </si>
+  <si>
+    <t>846-울89ㅇㅂ</t>
+  </si>
+  <si>
+    <t>울프 일기</t>
+  </si>
+  <si>
+    <t>버지니아 울프 지음 ; 박희진 옮김</t>
+  </si>
+  <si>
+    <t>솔</t>
+  </si>
+  <si>
+    <t>HBM000032928</t>
+  </si>
+  <si>
+    <t>169.9258-루87ㅅㄱ</t>
+  </si>
+  <si>
+    <t>삶으로서의 사유 : 루카치의 자전적 기록들</t>
+  </si>
+  <si>
+    <t>게오르크 루카치 지음 ; 김경식, 오길영 [공]편역</t>
+  </si>
+  <si>
+    <t>HBM000032929</t>
+  </si>
+  <si>
+    <t>549.23-승95ㅁ</t>
+  </si>
+  <si>
+    <t>묵상 : 건축가 승효상의 수도원 순례</t>
+  </si>
+  <si>
+    <t>승효상 지음</t>
+  </si>
+  <si>
+    <t>돌베개</t>
+  </si>
+  <si>
+    <t>HBM000032930</t>
+  </si>
+  <si>
+    <t>470.73-라88ㅅㅇ</t>
+  </si>
+  <si>
+    <t>실험실 생활 : 과학적 사실의 구성</t>
+  </si>
+  <si>
+    <t>브루노 라투르, 스티브 울거 [공]지음 ; 이상원 옮김</t>
   </si>
 </sst>
 </file>
@@ -4405,7 +5019,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4451,12 +5065,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4541,7 +5149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4623,9 +5231,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4641,7 +5246,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4979,15 +5590,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -5757,16 +6368,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>962</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -6195,7 +6806,7 @@
       <c r="D18" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="30" t="s">
         <v>1028</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -6330,7 +6941,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6345,16 +6956,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>1066</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -6471,7 +7082,7 @@
       <c r="D6" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="27" t="s">
         <v>1084</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -6892,7 +7503,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6908,16 +7519,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>1156</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -7216,7 +7827,7 @@
       <c r="D13" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="26" t="s">
         <v>1206</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -7714,8 +8325,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7731,16 +8342,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>1287</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -8609,6 +9220,1268 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H8" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H11" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H13" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H15" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H17" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H18" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H19" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H20" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H21" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H22" s="21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>21</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H23" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H24" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H25" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>24</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H26" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
+        <v>25</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H27" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="20">
+        <v>26</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H28" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
+        <v>27</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="H29" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>28</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H30" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
+        <v>29</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
+        <v>30</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H32" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
+        <v>31</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="20">
+        <v>32</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="20">
+        <v>33</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H35" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="20">
+        <v>34</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H36" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
+        <v>35</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H37" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="20">
+        <v>36</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H38" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="20">
+        <v>37</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H39" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="20">
+        <v>38</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H40" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="20">
+        <v>39</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="H41" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="20">
+        <v>40</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="H42" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="20">
+        <v>41</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H43" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="20">
+        <v>42</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>1614</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H44" s="21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="20">
+        <v>43</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H45" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="20">
+        <v>44</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="H46" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="20">
+        <v>45</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H47" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="20">
+        <v>46</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H48" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8631,7 +10504,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8646,15 +10519,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -9124,7 +10997,7 @@
       <c r="C22" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="32" t="s">
         <v>242</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -9263,16 +11136,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -10007,15 +11880,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -10531,16 +12404,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
@@ -11015,15 +12888,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -11096,22 +12969,22 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>2018</v>
       </c>
     </row>
@@ -11570,7 +13443,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11586,16 +13459,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -11660,7 +13533,7 @@
       <c r="D4" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="33" t="s">
         <v>1049</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -11972,7 +13845,7 @@
       <c r="D16" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="33" t="s">
         <v>1056</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -12279,16 +14152,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -12405,7 +14278,7 @@
       <c r="D6" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="34" t="s">
         <v>781</v>
       </c>
       <c r="F6" s="23" t="s">
@@ -12561,7 +14434,7 @@
       <c r="D12" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="34" t="s">
         <v>807</v>
       </c>
       <c r="F12" s="23" t="s">
@@ -12587,7 +14460,7 @@
       <c r="D13" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>811</v>
       </c>
       <c r="F13" s="23" t="s">
@@ -12878,7 +14751,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12894,16 +14767,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -13384,7 +15257,7 @@
       <c r="D20" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="33" t="s">
         <v>944</v>
       </c>
       <c r="F20" s="20" t="s">

--- a/반월도서관희망도서목록2019.xlsx
+++ b/반월도서관희망도서목록2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_Doc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A25963A-6225-4A6E-A598-620EA9FC9060}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13"/>
+    <workbookView xWindow="2295" yWindow="150" windowWidth="21600" windowHeight="15435" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN1" sheetId="3" r:id="rId1"/>
@@ -26,25 +27,20 @@
     <sheet name="JUN2" sheetId="14" r:id="rId12"/>
     <sheet name="JUL1" sheetId="15" r:id="rId13"/>
     <sheet name="JUL2" sheetId="16" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId15"/>
+    <sheet name="AUG1" sheetId="17" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="1722">
   <si>
     <t>반월도서관 1월 1차 희망도서 입수목록(31권)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4978,17 +4974,282 @@
   </si>
   <si>
     <t>브루노 라투르, 스티브 울거 [공]지음 ; 이상원 옮김</t>
+  </si>
+  <si>
+    <t>반월도서관 8월 1차 희망도서 입수목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000032932</t>
+  </si>
+  <si>
+    <t>512.49-오65ㅅㅎ</t>
+  </si>
+  <si>
+    <t>(최신)산림치유 개론</t>
+  </si>
+  <si>
+    <t>오오이 겐, 미야자키 요시후미, 히라노 히데키 외 저 ; 한국산림치유포럼 역</t>
+  </si>
+  <si>
+    <t>전나무숲</t>
+  </si>
+  <si>
+    <t>HBM000032933</t>
+  </si>
+  <si>
+    <t>818-손38ㄴ</t>
+  </si>
+  <si>
+    <t>(누가 뭐라고 해도)내가 가는 길이 꽃길이다</t>
+  </si>
+  <si>
+    <t>손미나 지음</t>
+  </si>
+  <si>
+    <t>한빛비즈</t>
+  </si>
+  <si>
+    <t>HBM000032934</t>
+  </si>
+  <si>
+    <t>800.99-슈38ㅁㅎ</t>
+  </si>
+  <si>
+    <t>미친 사랑의 서 : 작가의 밀애, 책 속의 밀어</t>
+  </si>
+  <si>
+    <t>섀넌 매케나 슈미트, 조니 렌던 [공]지음 ; 허형은 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032935</t>
+  </si>
+  <si>
+    <t>005.133-윤68ㅎ</t>
+  </si>
+  <si>
+    <t>혼자 공부하는 파이썬</t>
+  </si>
+  <si>
+    <t>윤인성 지음</t>
+  </si>
+  <si>
+    <t>한빛미디어</t>
+  </si>
+  <si>
+    <t>HBM000032936</t>
+  </si>
+  <si>
+    <t>005.133-이57ㅊ</t>
+  </si>
+  <si>
+    <t>(코딩초보를 위한)72시간 파이썬 정복</t>
+  </si>
+  <si>
+    <t>이승현 [외]공저</t>
+  </si>
+  <si>
+    <t>광문각</t>
+  </si>
+  <si>
+    <t>HBM000032937</t>
+  </si>
+  <si>
+    <t>005.133-이94ㅁ</t>
+  </si>
+  <si>
+    <t>모두의 C언어</t>
+  </si>
+  <si>
+    <t>이형우 지음</t>
+  </si>
+  <si>
+    <t>HBM000032938</t>
+  </si>
+  <si>
+    <t>005.138-한74ㅊ</t>
+  </si>
+  <si>
+    <t>최신 Java 프로그래밍</t>
+  </si>
+  <si>
+    <t>한정란 著</t>
+  </si>
+  <si>
+    <t>21세기사</t>
+  </si>
+  <si>
+    <t>HBM000032939</t>
+  </si>
+  <si>
+    <t>814.7-김63ㅇ</t>
+  </si>
+  <si>
+    <t>잊기 좋은 이름 : 김애란 산문</t>
+  </si>
+  <si>
+    <t>김애란 지음</t>
+  </si>
+  <si>
+    <t>열림원</t>
+  </si>
+  <si>
+    <t>HBM000032940</t>
+  </si>
+  <si>
+    <t>326.79-김14ㅇ</t>
+  </si>
+  <si>
+    <t>유튜브로 책 권하는 법</t>
+  </si>
+  <si>
+    <t>김겨울 지음</t>
+  </si>
+  <si>
+    <t>유유</t>
+  </si>
+  <si>
+    <t>HBM000032941</t>
+  </si>
+  <si>
+    <t>410-고38ㅅㄱ</t>
+  </si>
+  <si>
+    <t>(일상의 무기가 되는)수학 초능력 = Math power : 수학의 정리 편</t>
+  </si>
+  <si>
+    <t>고미야마 히로히토 지음 ; 김은혜 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032942</t>
+  </si>
+  <si>
+    <t>833.6-나87ㅅㄱ</t>
+  </si>
+  <si>
+    <t>산월기 : 나카지마 아쓰시 단편선</t>
+  </si>
+  <si>
+    <t>나카지마 아쓰시 지음 ; 김영식 옮김</t>
+  </si>
+  <si>
+    <t>문예</t>
+  </si>
+  <si>
+    <t>HBM000032943</t>
+  </si>
+  <si>
+    <t>813.7-황74ㄱ</t>
+  </si>
+  <si>
+    <t>계속해보겠습니다 : 황정은 장편소설</t>
+  </si>
+  <si>
+    <t>황정은 지음</t>
+  </si>
+  <si>
+    <t>HBM000032944</t>
+  </si>
+  <si>
+    <t>913.07-톨29ㅇㅂ</t>
+  </si>
+  <si>
+    <t>일본 제국 패망사 : 태평양전쟁 1936~1945</t>
+  </si>
+  <si>
+    <t>존 톨런드 지음 ; 박병화, 이두영 [공]옮김</t>
+  </si>
+  <si>
+    <t>HBM000032945</t>
+  </si>
+  <si>
+    <t>512.49-조44ㅅ</t>
+  </si>
+  <si>
+    <t>4대 만성병 자연치유 교과서</t>
+  </si>
+  <si>
+    <t>조병식 지음</t>
+  </si>
+  <si>
+    <t>왕의서재</t>
+  </si>
+  <si>
+    <t>HBM000032946</t>
+  </si>
+  <si>
+    <t>070.41-이73ㄱ</t>
+  </si>
+  <si>
+    <t>기사 작성의 기초</t>
+  </si>
+  <si>
+    <t>이재경, 송성근 [공]지음</t>
+  </si>
+  <si>
+    <t>이화여자대학교출판문화원</t>
+  </si>
+  <si>
+    <t>HBM000032947</t>
+  </si>
+  <si>
+    <t>337.1-소72ㅇㅇ</t>
+  </si>
+  <si>
+    <t>여자는 왜 완벽하려고 애쓸까</t>
+  </si>
+  <si>
+    <t>레시마 소자니 지음 ; 이미정 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032948</t>
+  </si>
+  <si>
+    <t>853-피83ㄴㅂ</t>
+  </si>
+  <si>
+    <t>내가 죽어야 하는 밤 : 제바스티안 피체크 장편소설</t>
+  </si>
+  <si>
+    <t>제바스티안 피체크 지음 ; 배명자 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032949</t>
+  </si>
+  <si>
+    <t>381.79-모29ㅁㅇ</t>
+  </si>
+  <si>
+    <t>매일매일 좋은 날</t>
+  </si>
+  <si>
+    <t>모리시타 노리코 지음 ; 이유라 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032950</t>
+  </si>
+  <si>
+    <t>491.51-도87ㅇㅎ</t>
+  </si>
+  <si>
+    <t>이기적 유전자</t>
+  </si>
+  <si>
+    <t>리처드 도킨스 지음 ; 홍영남, 이상임 [공]옮김</t>
+  </si>
+  <si>
+    <t>을유문화사</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4997,14 +5258,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5013,7 +5274,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5243,9 +5504,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5254,6 +5512,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5568,7 +5829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -5578,29 +5839,29 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5621,7 +5882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5644,7 +5905,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5667,7 +5928,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5690,7 +5951,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5713,7 +5974,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5736,7 +5997,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -5759,7 +6020,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -5782,7 +6043,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -5805,7 +6066,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -5828,7 +6089,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -5851,7 +6112,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -5874,7 +6135,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -5897,7 +6158,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -5920,7 +6181,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -5943,7 +6204,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -5966,7 +6227,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -5989,7 +6250,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -6012,7 +6273,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -6035,7 +6296,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -6058,7 +6319,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -6081,7 +6342,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -6104,7 +6365,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -6127,7 +6388,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -6150,7 +6411,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -6173,7 +6434,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -6196,7 +6457,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -6219,7 +6480,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -6242,7 +6503,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -6265,7 +6526,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -6288,7 +6549,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6311,7 +6572,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -6345,7 +6606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -6355,31 +6616,31 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="89.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.125" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="24" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>962</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -6403,7 +6664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -6429,7 +6690,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -6455,7 +6716,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -6481,7 +6742,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -6507,7 +6768,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -6533,7 +6794,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -6559,7 +6820,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -6585,7 +6846,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -6611,7 +6872,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -6637,7 +6898,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -6663,7 +6924,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -6689,7 +6950,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -6715,7 +6976,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -6741,7 +7002,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -6767,7 +7028,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -6793,7 +7054,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -6819,7 +7080,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -6845,7 +7106,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -6871,7 +7132,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -6897,7 +7158,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -6934,7 +7195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -6944,30 +7205,30 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.25" customWidth="1"/>
+    <col min="6" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>1066</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -6991,7 +7252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -7017,7 +7278,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -7043,7 +7304,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -7069,7 +7330,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -7095,7 +7356,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -7121,7 +7382,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -7147,7 +7408,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -7173,7 +7434,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -7199,7 +7460,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -7225,7 +7486,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -7251,7 +7512,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -7277,7 +7538,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -7303,7 +7564,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -7329,7 +7590,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -7355,7 +7616,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -7381,7 +7642,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -7407,7 +7668,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -7433,7 +7694,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -7459,7 +7720,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -7496,7 +7757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -7506,31 +7767,31 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="97.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="97.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>1156</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="13"/>
       <c r="B2" s="13" t="s">
         <v>1</v>
@@ -7554,7 +7815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -7580,7 +7841,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -7606,7 +7867,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -7632,7 +7893,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -7658,7 +7919,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -7684,7 +7945,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -7710,7 +7971,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -7736,7 +7997,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -7762,7 +8023,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -7788,7 +8049,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -7814,7 +8075,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -7840,7 +8101,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -7866,7 +8127,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -7892,7 +8153,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -7918,7 +8179,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -7944,7 +8205,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -7970,7 +8231,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -7996,7 +8257,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -8022,7 +8283,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -8048,7 +8309,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -8074,7 +8335,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -8100,7 +8361,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -8126,7 +8387,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -8152,7 +8413,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -8178,7 +8439,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -8204,7 +8465,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -8230,7 +8491,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -8256,7 +8517,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -8282,7 +8543,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -8319,7 +8580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -8329,31 +8590,31 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="77" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="28.5" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>1287</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -8377,7 +8638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -8403,7 +8664,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -8429,7 +8690,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -8455,7 +8716,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -8481,7 +8742,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -8507,7 +8768,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -8533,7 +8794,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -8559,7 +8820,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -8585,7 +8846,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -8611,7 +8872,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -8637,7 +8898,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -8663,7 +8924,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -8689,7 +8950,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -8715,7 +8976,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -8741,7 +9002,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -8767,7 +9028,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -8793,7 +9054,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -8819,7 +9080,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -8845,7 +9106,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -8871,7 +9132,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -8897,7 +9158,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -8923,7 +9184,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -8949,7 +9210,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -8975,7 +9236,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="20">
         <v>24</v>
       </c>
@@ -9001,7 +9262,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="20">
         <v>25</v>
       </c>
@@ -9027,7 +9288,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="20">
         <v>26</v>
       </c>
@@ -9053,7 +9314,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="20">
         <v>27</v>
       </c>
@@ -9079,7 +9340,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="20">
         <v>28</v>
       </c>
@@ -9105,7 +9366,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="20">
         <v>29</v>
       </c>
@@ -9131,7 +9392,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="20">
         <v>30</v>
       </c>
@@ -9157,7 +9418,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="20">
         <v>31</v>
       </c>
@@ -9183,7 +9444,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="20">
         <v>32</v>
       </c>
@@ -9220,38 +9481,38 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>1430</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -9275,7 +9536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -9301,7 +9562,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -9327,7 +9588,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -9353,7 +9614,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -9379,7 +9640,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -9405,7 +9666,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -9431,7 +9692,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -9457,7 +9718,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -9483,7 +9744,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -9509,7 +9770,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -9535,7 +9796,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -9561,7 +9822,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -9587,7 +9848,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -9613,7 +9874,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -9639,7 +9900,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -9665,7 +9926,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -9691,7 +9952,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -9717,7 +9978,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -9743,7 +10004,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -9769,7 +10030,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -9795,7 +10056,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -9821,7 +10082,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -9847,7 +10108,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -9873,7 +10134,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="20">
         <v>24</v>
       </c>
@@ -9899,7 +10160,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="20">
         <v>25</v>
       </c>
@@ -9925,7 +10186,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="20">
         <v>26</v>
       </c>
@@ -9951,7 +10212,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="20">
         <v>27</v>
       </c>
@@ -9977,7 +10238,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="20">
         <v>28</v>
       </c>
@@ -10003,7 +10264,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="20">
         <v>29</v>
       </c>
@@ -10029,7 +10290,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="20">
         <v>30</v>
       </c>
@@ -10055,7 +10316,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="20">
         <v>31</v>
       </c>
@@ -10081,7 +10342,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="20">
         <v>32</v>
       </c>
@@ -10107,7 +10368,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="20">
         <v>33</v>
       </c>
@@ -10133,7 +10394,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="20">
         <v>34</v>
       </c>
@@ -10159,7 +10420,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="20">
         <v>35</v>
       </c>
@@ -10185,7 +10446,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="20">
         <v>36</v>
       </c>
@@ -10211,7 +10472,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="20">
         <v>37</v>
       </c>
@@ -10237,7 +10498,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="20">
         <v>38</v>
       </c>
@@ -10263,7 +10524,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="20">
         <v>39</v>
       </c>
@@ -10289,7 +10550,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="20">
         <v>40</v>
       </c>
@@ -10315,7 +10576,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="20">
         <v>41</v>
       </c>
@@ -10341,7 +10602,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="20">
         <v>42</v>
       </c>
@@ -10367,7 +10628,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="20">
         <v>43</v>
       </c>
@@ -10393,7 +10654,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="20">
         <v>44</v>
       </c>
@@ -10419,7 +10680,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="20">
         <v>45</v>
       </c>
@@ -10445,7 +10706,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="20">
         <v>46</v>
       </c>
@@ -10482,14 +10743,576 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6DE92A-8DF2-43F1-8092-3558ADD8367D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10497,7 +11320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10507,29 +11330,29 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -10550,7 +11373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -10573,7 +11396,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="20.25" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -10596,7 +11419,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="20.25" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -10619,7 +11442,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="20.25" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -10642,7 +11465,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="20.25" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -10665,7 +11488,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="20.25" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -10688,7 +11511,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="20.25" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -10711,7 +11534,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="20.25" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -10734,7 +11557,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="20.25" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -10757,7 +11580,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="20.25" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -10780,7 +11603,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="20.25" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -10803,7 +11626,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="20.25" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -10826,7 +11649,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="20.25" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -10849,7 +11672,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="20.25" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -10872,7 +11695,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="20.25" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -10895,7 +11718,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="20.25" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -10918,7 +11741,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="20.25" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -10941,7 +11764,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="20.25" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -10964,7 +11787,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="20.25" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -10987,7 +11810,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="20.25" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -10997,7 +11820,7 @@
       <c r="C22" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>242</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -11010,7 +11833,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="20.25" customHeight="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -11033,7 +11856,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="20.25" customHeight="1">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -11056,7 +11879,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="20.25" customHeight="1">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -11079,7 +11902,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="20.25" customHeight="1">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -11113,7 +11936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -11123,31 +11946,31 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="70.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -11171,7 +11994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" customHeight="1">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -11197,7 +12020,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -11223,7 +12046,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -11249,7 +12072,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -11275,7 +12098,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -11301,7 +12124,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -11327,7 +12150,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -11353,7 +12176,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -11379,7 +12202,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -11405,7 +12228,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -11431,7 +12254,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -11457,7 +12280,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -11483,7 +12306,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -11509,7 +12332,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -11535,7 +12358,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -11561,7 +12384,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -11587,7 +12410,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -11613,7 +12436,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -11639,7 +12462,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -11665,7 +12488,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -11691,7 +12514,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -11717,7 +12540,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -11743,7 +12566,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -11769,7 +12592,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -11795,7 +12618,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -11821,7 +12644,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -11858,7 +12681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -11868,29 +12691,29 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="13" t="s">
         <v>1</v>
@@ -11911,7 +12734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -11934,7 +12757,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -11957,7 +12780,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -11980,7 +12803,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -12003,7 +12826,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -12026,7 +12849,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -12049,7 +12872,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -12072,7 +12895,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -12095,7 +12918,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -12118,7 +12941,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -12141,7 +12964,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -12164,7 +12987,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -12187,7 +13010,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -12210,7 +13033,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -12233,7 +13056,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -12256,7 +13079,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="18" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -12279,7 +13102,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="18" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -12302,7 +13125,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="18" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -12325,7 +13148,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12348,7 +13171,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="18" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -12382,7 +13205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -12392,30 +13215,30 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="56.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
         <v>1</v>
@@ -12439,7 +13262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -12465,7 +13288,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -12491,7 +13314,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -12517,7 +13340,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -12543,7 +13366,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -12569,7 +13392,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -12595,7 +13418,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -12621,7 +13444,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -12647,7 +13470,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -12673,7 +13496,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -12699,7 +13522,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -12725,7 +13548,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -12751,7 +13574,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -12777,7 +13600,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -12803,7 +13626,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -12829,7 +13652,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -12866,7 +13689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -12876,29 +13699,29 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
         <v>1</v>
@@ -12919,7 +13742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -12942,7 +13765,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -12965,7 +13788,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -12988,7 +13811,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -13011,7 +13834,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -13034,7 +13857,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -13057,7 +13880,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -13080,7 +13903,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -13103,7 +13926,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -13126,7 +13949,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -13149,7 +13972,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -13172,7 +13995,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -13195,7 +14018,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -13218,7 +14041,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -13241,7 +14064,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -13264,7 +14087,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -13287,7 +14110,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -13310,7 +14133,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -13333,7 +14156,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -13356,7 +14179,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -13379,7 +14202,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -13402,7 +14225,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -13436,7 +14259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -13446,31 +14269,31 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="59.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="34" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -13494,7 +14317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -13520,7 +14343,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -13533,7 +14356,7 @@
       <c r="D4" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>1049</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -13546,7 +14369,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -13572,7 +14395,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -13598,7 +14421,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -13624,7 +14447,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -13650,7 +14473,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -13676,7 +14499,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -13702,7 +14525,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -13728,7 +14551,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -13754,7 +14577,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -13780,7 +14603,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -13806,7 +14629,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -13832,7 +14655,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -13845,7 +14668,7 @@
       <c r="D16" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>1056</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -13858,7 +14681,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -13884,7 +14707,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -13910,7 +14733,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -13936,7 +14759,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="17.25" customHeight="1">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -13962,7 +14785,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -13988,7 +14811,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -14014,7 +14837,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="17.25" customHeight="1">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -14040,7 +14863,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="17.25" customHeight="1">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -14066,7 +14889,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -14092,7 +14915,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="17.25" customHeight="1">
       <c r="A26" s="20">
         <v>24</v>
       </c>
@@ -14129,7 +14952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -14139,31 +14962,31 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" customWidth="1"/>
-    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>765</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -14187,7 +15010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -14213,7 +15036,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -14239,7 +15062,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -14265,7 +15088,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -14278,7 +15101,7 @@
       <c r="D6" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>781</v>
       </c>
       <c r="F6" s="23" t="s">
@@ -14291,7 +15114,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -14317,7 +15140,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -14343,7 +15166,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -14369,7 +15192,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -14395,7 +15218,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -14421,7 +15244,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.5" customHeight="1">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -14434,7 +15257,7 @@
       <c r="D12" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>807</v>
       </c>
       <c r="F12" s="23" t="s">
@@ -14447,7 +15270,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.5" customHeight="1">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -14473,7 +15296,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.5" customHeight="1">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -14499,7 +15322,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.5" customHeight="1">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -14525,7 +15348,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19.5" customHeight="1">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -14551,7 +15374,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="19.5" customHeight="1">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -14577,7 +15400,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.5" customHeight="1">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -14603,7 +15426,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="19.5" customHeight="1">
       <c r="A19" s="22">
         <v>17</v>
       </c>
@@ -14629,7 +15452,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="19.5" customHeight="1">
       <c r="A20" s="22">
         <v>18</v>
       </c>
@@ -14655,7 +15478,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="19.5" customHeight="1">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -14681,7 +15504,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="19.5" customHeight="1">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -14707,7 +15530,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="19.5" customHeight="1">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -14744,7 +15567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -14754,31 +15577,31 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="54.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -14802,7 +15625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -14828,7 +15651,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -14854,7 +15677,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -14880,7 +15703,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -14906,7 +15729,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -14932,7 +15755,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -14958,7 +15781,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -14984,7 +15807,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -15010,7 +15833,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -15036,7 +15859,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -15062,7 +15885,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -15088,7 +15911,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -15114,7 +15937,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -15140,7 +15963,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -15166,7 +15989,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -15192,7 +16015,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -15218,7 +16041,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -15244,7 +16067,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -15257,7 +16080,7 @@
       <c r="D20" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>944</v>
       </c>
       <c r="F20" s="20" t="s">
@@ -15270,7 +16093,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -15296,7 +16119,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -15322,7 +16145,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="21">
         <v>21</v>
       </c>
